--- a/Linaria loeselii data combined to Nathan.xlsx
+++ b/Linaria loeselii data combined to Nathan.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Reviews/Laurynas Taura/Vegetation analyses/Effects_of_alien_vegetation_on_native_flora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A4F1D-EB30-4AD3-A590-8D96F6E0C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{EF6A4F1D-EB30-4AD3-A590-8D96F6E0C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D9D511-A099-43CD-843A-3F9C2F5445F7}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="342">
   <si>
     <t>Year</t>
   </si>
@@ -1012,6 +1013,57 @@
   <si>
     <t>Gypsophila_paniculata_alien</t>
   </si>
+  <si>
+    <t>LLO-1_2008</t>
+  </si>
+  <si>
+    <t>LLO-1_2012</t>
+  </si>
+  <si>
+    <t>LLO-1_2015</t>
+  </si>
+  <si>
+    <t>LLO-1_2020</t>
+  </si>
+  <si>
+    <t>LLO-2_2008</t>
+  </si>
+  <si>
+    <t>LLO-3_2008</t>
+  </si>
+  <si>
+    <t>LLO-3_2012</t>
+  </si>
+  <si>
+    <t>LLO-3_2014</t>
+  </si>
+  <si>
+    <t>LLO-3_2020</t>
+  </si>
+  <si>
+    <t>LLO-4_2008</t>
+  </si>
+  <si>
+    <t>LLO-4_2015</t>
+  </si>
+  <si>
+    <t>LLO-4_2020</t>
+  </si>
+  <si>
+    <t>LLO-6_2014</t>
+  </si>
+  <si>
+    <t>LLO-6_2020</t>
+  </si>
+  <si>
+    <t>site_code</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
 </sst>
 </file>
 
@@ -1378,7 +1430,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1656,15 +1708,15 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>+AH2+AJ2+AK2</f>
+        <f t="shared" ref="AL2:AL65" si="0">+AH2+AJ2+AK2</f>
         <v>2</v>
       </c>
       <c r="AM2">
-        <f>+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+S2+T2+V2+X2+Z2+AA2+AB2+AE2+AF2</f>
+        <f t="shared" ref="AM2:AM65" si="1">+F2+G2+H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2+S2+T2+V2+X2+Z2+AA2+AB2+AE2+AF2</f>
         <v>2.8</v>
       </c>
       <c r="AN2">
-        <f>+P2+R2+U2+W2+AD2+AG2</f>
+        <f t="shared" ref="AN2:AN65" si="2">+P2+R2+U2+W2+AD2+AG2</f>
         <v>0</v>
       </c>
     </row>
@@ -1781,15 +1833,15 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>+AH3+AJ3+AK3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AM3">
-        <f>+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+S3+T3+V3+X3+Z3+AA3+AB3+AE3+AF3</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
       <c r="AN3">
-        <f>+P3+R3+U3+W3+AD3+AG3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1906,15 +1958,15 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>+AH4+AJ4+AK4</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="AM4">
-        <f>+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+S4+T4+V4+X4+Z4+AA4+AB4+AE4+AF4</f>
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="AN4">
-        <f>+P4+R4+U4+W4+AD4+AG4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2031,15 +2083,15 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>+AH5+AJ5+AK5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM5">
-        <f>+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+S5+T5+V5+X5+Z5+AA5+AB5+AE5+AF5</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="AN5">
-        <f>+P5+R5+U5+W5+AD5+AG5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2156,15 +2208,15 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>+AH6+AJ6+AK6</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM6">
-        <f>+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6+P6+Q6+S6+T6+V6+X6+Z6+AA6+AB6+AE6+AF6</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="AN6">
-        <f>+P6+R6+U6+W6+AD6+AG6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2281,15 +2333,15 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <f>+AH7+AJ7+AK7</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM7">
-        <f>+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7+P7+Q7+S7+T7+V7+X7+Z7+AA7+AB7+AE7+AF7</f>
+        <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
       <c r="AN7">
-        <f>+P7+R7+U7+W7+AD7+AG7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2406,15 +2458,15 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>+AH8+AJ8+AK8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM8">
-        <f>+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8+P8+Q8+S8+T8+V8+X8+Z8+AA8+AB8+AE8+AF8</f>
+        <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
       <c r="AN8">
-        <f>+P8+R8+U8+W8+AD8+AG8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2531,15 +2583,15 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>+AH9+AJ9+AK9</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM9">
-        <f>+F9+G9+H9+I9+J9+K9+L9+M9+N9+O9+P9+Q9+S9+T9+V9+X9+Z9+AA9+AB9+AE9+AF9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AN9">
-        <f>+P9+R9+U9+W9+AD9+AG9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2656,15 +2708,15 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>+AH10+AJ10+AK10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM10">
-        <f>+F10+G10+H10+I10+J10+K10+L10+M10+N10+O10+P10+Q10+S10+T10+V10+X10+Z10+AA10+AB10+AE10+AF10</f>
+        <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
       <c r="AN10">
-        <f>+P10+R10+U10+W10+AD10+AG10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2781,15 +2833,15 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>+AH11+AJ11+AK11</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="AM11">
-        <f>+F11+G11+H11+I11+J11+K11+L11+M11+N11+O11+P11+Q11+S11+T11+V11+X11+Z11+AA11+AB11+AE11+AF11</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN11">
-        <f>+P11+R11+U11+W11+AD11+AG11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,15 +2958,15 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>+AH12+AJ12+AK12</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM12">
-        <f>+F12+G12+H12+I12+J12+K12+L12+M12+N12+O12+P12+Q12+S12+T12+V12+X12+Z12+AA12+AB12+AE12+AF12</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN12">
-        <f>+P12+R12+U12+W12+AD12+AG12</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3031,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <f>+AH13+AJ13+AK13</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AM13">
-        <f>+F13+G13+H13+I13+J13+K13+L13+M13+N13+O13+P13+Q13+S13+T13+V13+X13+Z13+AA13+AB13+AE13+AF13</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="AN13">
-        <f>+P13+R13+U13+W13+AD13+AG13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3156,15 +3208,15 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <f>+AH14+AJ14+AK14</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM14">
-        <f>+F14+G14+H14+I14+J14+K14+L14+M14+N14+O14+P14+Q14+S14+T14+V14+X14+Z14+AA14+AB14+AE14+AF14</f>
+        <f t="shared" si="1"/>
         <v>3.4999999999999996</v>
       </c>
       <c r="AN14">
-        <f>+P14+R14+U14+W14+AD14+AG14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3281,15 +3333,15 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <f>+AH15+AJ15+AK15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="AM15">
-        <f>+F15+G15+H15+I15+J15+K15+L15+M15+N15+O15+P15+Q15+S15+T15+V15+X15+Z15+AA15+AB15+AE15+AF15</f>
+        <f t="shared" si="1"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="AN15">
-        <f>+P15+R15+U15+W15+AD15+AG15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3406,15 +3458,15 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <f>+AH16+AJ16+AK16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM16">
-        <f>+F16+G16+H16+I16+J16+K16+L16+M16+N16+O16+P16+Q16+S16+T16+V16+X16+Z16+AA16+AB16+AE16+AF16</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="AN16">
-        <f>+P16+R16+U16+W16+AD16+AG16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3531,15 +3583,15 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <f>+AH17+AJ17+AK17</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="AM17">
-        <f>+F17+G17+H17+I17+J17+K17+L17+M17+N17+O17+P17+Q17+S17+T17+V17+X17+Z17+AA17+AB17+AE17+AF17</f>
+        <f t="shared" si="1"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="AN17">
-        <f>+P17+R17+U17+W17+AD17+AG17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3656,15 +3708,15 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <f>+AH18+AJ18+AK18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM18">
-        <f>+F18+G18+H18+I18+J18+K18+L18+M18+N18+O18+P18+Q18+S18+T18+V18+X18+Z18+AA18+AB18+AE18+AF18</f>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
       <c r="AN18">
-        <f>+P18+R18+U18+W18+AD18+AG18</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3781,15 +3833,15 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <f>+AH19+AJ19+AK19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM19">
-        <f>+F19+G19+H19+I19+J19+K19+L19+M19+N19+O19+P19+Q19+S19+T19+V19+X19+Z19+AA19+AB19+AE19+AF19</f>
+        <f t="shared" si="1"/>
         <v>4.1000000000000005</v>
       </c>
       <c r="AN19">
-        <f>+P19+R19+U19+W19+AD19+AG19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3906,15 +3958,15 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <f>+AH20+AJ20+AK20</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM20">
-        <f>+F20+G20+H20+I20+J20+K20+L20+M20+N20+O20+P20+Q20+S20+T20+V20+X20+Z20+AA20+AB20+AE20+AF20</f>
+        <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="AN20">
-        <f>+P20+R20+U20+W20+AD20+AG20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4031,15 +4083,15 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <f>+AH21+AJ21+AK21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM21">
-        <f>+F21+G21+H21+I21+J21+K21+L21+M21+N21+O21+P21+Q21+S21+T21+V21+X21+Z21+AA21+AB21+AE21+AF21</f>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
       <c r="AN21">
-        <f>+P21+R21+U21+W21+AD21+AG21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4156,15 +4208,15 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <f>+AH22+AJ22+AK22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM22">
-        <f>+F22+G22+H22+I22+J22+K22+L22+M22+N22+O22+P22+Q22+S22+T22+V22+X22+Z22+AA22+AB22+AE22+AF22</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AN22">
-        <f>+P22+R22+U22+W22+AD22+AG22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4281,15 +4333,15 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <f>+AH23+AJ23+AK23</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM23">
-        <f>+F23+G23+H23+I23+J23+K23+L23+M23+N23+O23+P23+Q23+S23+T23+V23+X23+Z23+AA23+AB23+AE23+AF23</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="AN23">
-        <f>+P23+R23+U23+W23+AD23+AG23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4406,15 +4458,15 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <f>+AH24+AJ24+AK24</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="AM24">
-        <f>+F24+G24+H24+I24+J24+K24+L24+M24+N24+O24+P24+Q24+S24+T24+V24+X24+Z24+AA24+AB24+AE24+AF24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN24">
-        <f>+P24+R24+U24+W24+AD24+AG24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,15 +4583,15 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <f>+AH25+AJ25+AK25</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM25">
-        <f>+F25+G25+H25+I25+J25+K25+L25+M25+N25+O25+P25+Q25+S25+T25+V25+X25+Z25+AA25+AB25+AE25+AF25</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AN25">
-        <f>+P25+R25+U25+W25+AD25+AG25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4656,15 +4708,15 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <f>+AH26+AJ26+AK26</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="AM26">
-        <f>+F26+G26+H26+I26+J26+K26+L26+M26+N26+O26+P26+Q26+S26+T26+V26+X26+Z26+AA26+AB26+AE26+AF26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN26">
-        <f>+P26+R26+U26+W26+AD26+AG26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,15 +4833,15 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <f>+AH27+AJ27+AK27</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM27">
-        <f>+F27+G27+H27+I27+J27+K27+L27+M27+N27+O27+P27+Q27+S27+T27+V27+X27+Z27+AA27+AB27+AE27+AF27</f>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="AN27">
-        <f>+P27+R27+U27+W27+AD27+AG27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4906,15 +4958,15 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <f>+AH28+AJ28+AK28</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="AM28">
-        <f>+F28+G28+H28+I28+J28+K28+L28+M28+N28+O28+P28+Q28+S28+T28+V28+X28+Z28+AA28+AB28+AE28+AF28</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AN28">
-        <f>+P28+R28+U28+W28+AD28+AG28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5031,15 +5083,15 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <f>+AH29+AJ29+AK29</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AM29">
-        <f>+F29+G29+H29+I29+J29+K29+L29+M29+N29+O29+P29+Q29+S29+T29+V29+X29+Z29+AA29+AB29+AE29+AF29</f>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="AN29">
-        <f>+P29+R29+U29+W29+AD29+AG29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5156,15 +5208,15 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <f>+AH30+AJ30+AK30</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="AM30">
-        <f>+F30+G30+H30+I30+J30+K30+L30+M30+N30+O30+P30+Q30+S30+T30+V30+X30+Z30+AA30+AB30+AE30+AF30</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="AN30">
-        <f>+P30+R30+U30+W30+AD30+AG30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5281,15 +5333,15 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <f>+AH31+AJ31+AK31</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="AM31">
-        <f>+F31+G31+H31+I31+J31+K31+L31+M31+N31+O31+P31+Q31+S31+T31+V31+X31+Z31+AA31+AB31+AE31+AF31</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AN31">
-        <f>+P31+R31+U31+W31+AD31+AG31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5406,15 +5458,15 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <f>+AH32+AJ32+AK32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM32">
-        <f>+F32+G32+H32+I32+J32+K32+L32+M32+N32+O32+P32+Q32+S32+T32+V32+X32+Z32+AA32+AB32+AE32+AF32</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="AN32">
-        <f>+P32+R32+U32+W32+AD32+AG32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5531,15 +5583,15 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <f>+AH33+AJ33+AK33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM33">
-        <f>+F33+G33+H33+I33+J33+K33+L33+M33+N33+O33+P33+Q33+S33+T33+V33+X33+Z33+AA33+AB33+AE33+AF33</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AN33">
-        <f>+P33+R33+U33+W33+AD33+AG33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,15 +5708,15 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <f>+AH34+AJ34+AK34</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="AM34">
-        <f>+F34+G34+H34+I34+J34+K34+L34+M34+N34+O34+P34+Q34+S34+T34+V34+X34+Z34+AA34+AB34+AE34+AF34</f>
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
       <c r="AN34">
-        <f>+P34+R34+U34+W34+AD34+AG34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5781,15 +5833,15 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <f>+AH35+AJ35+AK35</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="AM35">
-        <f>+F35+G35+H35+I35+J35+K35+L35+M35+N35+O35+P35+Q35+S35+T35+V35+X35+Z35+AA35+AB35+AE35+AF35</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AN35">
-        <f>+P35+R35+U35+W35+AD35+AG35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,15 +5958,15 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <f>+AH36+AJ36+AK36</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="AM36">
-        <f>+F36+G36+H36+I36+J36+K36+L36+M36+N36+O36+P36+Q36+S36+T36+V36+X36+Z36+AA36+AB36+AE36+AF36</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN36">
-        <f>+P36+R36+U36+W36+AD36+AG36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6031,15 +6083,15 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <f>+AH37+AJ37+AK37</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM37">
-        <f>+F37+G37+H37+I37+J37+K37+L37+M37+N37+O37+P37+Q37+S37+T37+V37+X37+Z37+AA37+AB37+AE37+AF37</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN37">
-        <f>+P37+R37+U37+W37+AD37+AG37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,15 +6208,15 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <f>+AH38+AJ38+AK38</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM38">
-        <f>+F38+G38+H38+I38+J38+K38+L38+M38+N38+O38+P38+Q38+S38+T38+V38+X38+Z38+AA38+AB38+AE38+AF38</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN38">
-        <f>+P38+R38+U38+W38+AD38+AG38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6281,15 +6333,15 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <f>+AH39+AJ39+AK39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM39">
-        <f>+F39+G39+H39+I39+J39+K39+L39+M39+N39+O39+P39+Q39+S39+T39+V39+X39+Z39+AA39+AB39+AE39+AF39</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AN39">
-        <f>+P39+R39+U39+W39+AD39+AG39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6406,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <f>+AH40+AJ40+AK40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM40">
-        <f>+F40+G40+H40+I40+J40+K40+L40+M40+N40+O40+P40+Q40+S40+T40+V40+X40+Z40+AA40+AB40+AE40+AF40</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN40">
-        <f>+P40+R40+U40+W40+AD40+AG40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6531,15 +6583,15 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <f>+AH41+AJ41+AK41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM41">
-        <f>+F41+G41+H41+I41+J41+K41+L41+M41+N41+O41+P41+Q41+S41+T41+V41+X41+Z41+AA41+AB41+AE41+AF41</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="AN41">
-        <f>+P41+R41+U41+W41+AD41+AG41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6656,15 +6708,15 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <f>+AH42+AJ42+AK42</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AM42">
-        <f>+F42+G42+H42+I42+J42+K42+L42+M42+N42+O42+P42+Q42+S42+T42+V42+X42+Z42+AA42+AB42+AE42+AF42</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="AN42">
-        <f>+P42+R42+U42+W42+AD42+AG42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6781,15 +6833,15 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <f>+AH43+AJ43+AK43</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AM43">
-        <f>+F43+G43+H43+I43+J43+K43+L43+M43+N43+O43+P43+Q43+S43+T43+V43+X43+Z43+AA43+AB43+AE43+AF43</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999998</v>
       </c>
       <c r="AN43">
-        <f>+P43+R43+U43+W43+AD43+AG43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6906,15 +6958,15 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <f>+AH44+AJ44+AK44</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AM44">
-        <f>+F44+G44+H44+I44+J44+K44+L44+M44+N44+O44+P44+Q44+S44+T44+V44+X44+Z44+AA44+AB44+AE44+AF44</f>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AN44">
-        <f>+P44+R44+U44+W44+AD44+AG44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7031,15 +7083,15 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <f>+AH45+AJ45+AK45</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="AM45">
-        <f>+F45+G45+H45+I45+J45+K45+L45+M45+N45+O45+P45+Q45+S45+T45+V45+X45+Z45+AA45+AB45+AE45+AF45</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="AN45">
-        <f>+P45+R45+U45+W45+AD45+AG45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7156,15 +7208,15 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <f>+AH46+AJ46+AK46</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="AM46">
-        <f>+F46+G46+H46+I46+J46+K46+L46+M46+N46+O46+P46+Q46+S46+T46+V46+X46+Z46+AA46+AB46+AE46+AF46</f>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="AN46">
-        <f>+P46+R46+U46+W46+AD46+AG46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7281,15 +7333,15 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <f>+AH47+AJ47+AK47</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM47">
-        <f>+F47+G47+H47+I47+J47+K47+L47+M47+N47+O47+P47+Q47+S47+T47+V47+X47+Z47+AA47+AB47+AE47+AF47</f>
+        <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
       <c r="AN47">
-        <f>+P47+R47+U47+W47+AD47+AG47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7406,15 +7458,15 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <f>+AH48+AJ48+AK48</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM48">
-        <f>+F48+G48+H48+I48+J48+K48+L48+M48+N48+O48+P48+Q48+S48+T48+V48+X48+Z48+AA48+AB48+AE48+AF48</f>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="AN48">
-        <f>+P48+R48+U48+W48+AD48+AG48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7531,15 +7583,15 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <f>+AH49+AJ49+AK49</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AM49">
-        <f>+F49+G49+H49+I49+J49+K49+L49+M49+N49+O49+P49+Q49+S49+T49+V49+X49+Z49+AA49+AB49+AE49+AF49</f>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="AN49">
-        <f>+P49+R49+U49+W49+AD49+AG49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7656,15 +7708,15 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <f>+AH50+AJ50+AK50</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM50">
-        <f>+F50+G50+H50+I50+J50+K50+L50+M50+N50+O50+P50+Q50+S50+T50+V50+X50+Z50+AA50+AB50+AE50+AF50</f>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="AN50">
-        <f>+P50+R50+U50+W50+AD50+AG50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,15 +7833,15 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <f>+AH51+AJ51+AK51</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM51">
-        <f>+F51+G51+H51+I51+J51+K51+L51+M51+N51+O51+P51+Q51+S51+T51+V51+X51+Z51+AA51+AB51+AE51+AF51</f>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="AN51">
-        <f>+P51+R51+U51+W51+AD51+AG51</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7906,15 +7958,15 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <f>+AH52+AJ52+AK52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM52">
-        <f>+F52+G52+H52+I52+J52+K52+L52+M52+N52+O52+P52+Q52+S52+T52+V52+X52+Z52+AA52+AB52+AE52+AF52</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AN52">
-        <f>+P52+R52+U52+W52+AD52+AG52</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8031,15 +8083,15 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <f>+AH53+AJ53+AK53</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AM53">
-        <f>+F53+G53+H53+I53+J53+K53+L53+M53+N53+O53+P53+Q53+S53+T53+V53+X53+Z53+AA53+AB53+AE53+AF53</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AN53">
-        <f>+P53+R53+U53+W53+AD53+AG53</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,15 +8208,15 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <f>+AH54+AJ54+AK54</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="AM54">
-        <f>+F54+G54+H54+I54+J54+K54+L54+M54+N54+O54+P54+Q54+S54+T54+V54+X54+Z54+AA54+AB54+AE54+AF54</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="AN54">
-        <f>+P54+R54+U54+W54+AD54+AG54</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8281,15 +8333,15 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <f>+AH55+AJ55+AK55</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM55">
-        <f>+F55+G55+H55+I55+J55+K55+L55+M55+N55+O55+P55+Q55+S55+T55+V55+X55+Z55+AA55+AB55+AE55+AF55</f>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="AN55">
-        <f>+P55+R55+U55+W55+AD55+AG55</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8406,15 +8458,15 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <f>+AH56+AJ56+AK56</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM56">
-        <f>+F56+G56+H56+I56+J56+K56+L56+M56+N56+O56+P56+Q56+S56+T56+V56+X56+Z56+AA56+AB56+AE56+AF56</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AN56">
-        <f>+P56+R56+U56+W56+AD56+AG56</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8531,15 +8583,15 @@
         <v>0</v>
       </c>
       <c r="AL57">
-        <f>+AH57+AJ57+AK57</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM57">
-        <f>+F57+G57+H57+I57+J57+K57+L57+M57+N57+O57+P57+Q57+S57+T57+V57+X57+Z57+AA57+AB57+AE57+AF57</f>
+        <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="AN57">
-        <f>+P57+R57+U57+W57+AD57+AG57</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8656,15 +8708,15 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <f>+AH58+AJ58+AK58</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM58">
-        <f>+F58+G58+H58+I58+J58+K58+L58+M58+N58+O58+P58+Q58+S58+T58+V58+X58+Z58+AA58+AB58+AE58+AF58</f>
+        <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="AN58">
-        <f>+P58+R58+U58+W58+AD58+AG58</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8781,15 +8833,15 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <f>+AH59+AJ59+AK59</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="AM59">
-        <f>+F59+G59+H59+I59+J59+K59+L59+M59+N59+O59+P59+Q59+S59+T59+V59+X59+Z59+AA59+AB59+AE59+AF59</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="AN59">
-        <f>+P59+R59+U59+W59+AD59+AG59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8906,15 +8958,15 @@
         <v>0</v>
       </c>
       <c r="AL60">
-        <f>+AH60+AJ60+AK60</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="AM60">
-        <f>+F60+G60+H60+I60+J60+K60+L60+M60+N60+O60+P60+Q60+S60+T60+V60+X60+Z60+AA60+AB60+AE60+AF60</f>
+        <f t="shared" si="1"/>
         <v>2.9000000000000004</v>
       </c>
       <c r="AN60">
-        <f>+P60+R60+U60+W60+AD60+AG60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9031,15 +9083,15 @@
         <v>0</v>
       </c>
       <c r="AL61">
-        <f>+AH61+AJ61+AK61</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM61">
-        <f>+F61+G61+H61+I61+J61+K61+L61+M61+N61+O61+P61+Q61+S61+T61+V61+X61+Z61+AA61+AB61+AE61+AF61</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="AN61">
-        <f>+P61+R61+U61+W61+AD61+AG61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9156,15 +9208,15 @@
         <v>0</v>
       </c>
       <c r="AL62">
-        <f>+AH62+AJ62+AK62</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AM62">
-        <f>+F62+G62+H62+I62+J62+K62+L62+M62+N62+O62+P62+Q62+S62+T62+V62+X62+Z62+AA62+AB62+AE62+AF62</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN62">
-        <f>+P62+R62+U62+W62+AD62+AG62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9281,15 +9333,15 @@
         <v>0</v>
       </c>
       <c r="AL63">
-        <f>+AH63+AJ63+AK63</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AM63">
-        <f>+F63+G63+H63+I63+J63+K63+L63+M63+N63+O63+P63+Q63+S63+T63+V63+X63+Z63+AA63+AB63+AE63+AF63</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="AN63">
-        <f>+P63+R63+U63+W63+AD63+AG63</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9406,15 +9458,15 @@
         <v>0</v>
       </c>
       <c r="AL64">
-        <f>+AH64+AJ64+AK64</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AM64">
-        <f>+F64+G64+H64+I64+J64+K64+L64+M64+N64+O64+P64+Q64+S64+T64+V64+X64+Z64+AA64+AB64+AE64+AF64</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AN64">
-        <f>+P64+R64+U64+W64+AD64+AG64</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9531,15 +9583,15 @@
         <v>0</v>
       </c>
       <c r="AL65">
-        <f>+AH65+AJ65+AK65</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AM65">
-        <f>+F65+G65+H65+I65+J65+K65+L65+M65+N65+O65+P65+Q65+S65+T65+V65+X65+Z65+AA65+AB65+AE65+AF65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AN65">
-        <f>+P65+R65+U65+W65+AD65+AG65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9656,15 +9708,15 @@
         <v>0</v>
       </c>
       <c r="AL66">
-        <f>+AH66+AJ66+AK66</f>
+        <f t="shared" ref="AL66:AL129" si="3">+AH66+AJ66+AK66</f>
         <v>2</v>
       </c>
       <c r="AM66">
-        <f>+F66+G66+H66+I66+J66+K66+L66+M66+N66+O66+P66+Q66+S66+T66+V66+X66+Z66+AA66+AB66+AE66+AF66</f>
+        <f t="shared" ref="AM66:AM129" si="4">+F66+G66+H66+I66+J66+K66+L66+M66+N66+O66+P66+Q66+S66+T66+V66+X66+Z66+AA66+AB66+AE66+AF66</f>
         <v>2</v>
       </c>
       <c r="AN66">
-        <f>+P66+R66+U66+W66+AD66+AG66</f>
+        <f t="shared" ref="AN66:AN129" si="5">+P66+R66+U66+W66+AD66+AG66</f>
         <v>0</v>
       </c>
     </row>
@@ -9781,15 +9833,15 @@
         <v>0</v>
       </c>
       <c r="AL67">
-        <f>+AH67+AJ67+AK67</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="AM67">
-        <f>+F67+G67+H67+I67+J67+K67+L67+M67+N67+O67+P67+Q67+S67+T67+V67+X67+Z67+AA67+AB67+AE67+AF67</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AN67">
-        <f>+P67+R67+U67+W67+AD67+AG67</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9906,15 +9958,15 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <f>+AH68+AJ68+AK68</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f>+F68+G68+H68+I68+J68+K68+L68+M68+N68+O68+P68+Q68+S68+T68+V68+X68+Z68+AA68+AB68+AE68+AF68</f>
+        <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="AN68">
-        <f>+P68+R68+U68+W68+AD68+AG68</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10031,15 +10083,15 @@
         <v>0</v>
       </c>
       <c r="AL69">
-        <f>+AH69+AJ69+AK69</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="AM69">
-        <f>+F69+G69+H69+I69+J69+K69+L69+M69+N69+O69+P69+Q69+S69+T69+V69+X69+Z69+AA69+AB69+AE69+AF69</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN69">
-        <f>+P69+R69+U69+W69+AD69+AG69</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10156,15 +10208,15 @@
         <v>0</v>
       </c>
       <c r="AL70">
-        <f>+AH70+AJ70+AK70</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AM70">
-        <f>+F70+G70+H70+I70+J70+K70+L70+M70+N70+O70+P70+Q70+S70+T70+V70+X70+Z70+AA70+AB70+AE70+AF70</f>
+        <f t="shared" si="4"/>
         <v>5.4</v>
       </c>
       <c r="AN70">
-        <f>+P70+R70+U70+W70+AD70+AG70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10281,15 +10333,15 @@
         <v>0</v>
       </c>
       <c r="AL71">
-        <f>+AH71+AJ71+AK71</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AM71">
-        <f>+F71+G71+H71+I71+J71+K71+L71+M71+N71+O71+P71+Q71+S71+T71+V71+X71+Z71+AA71+AB71+AE71+AF71</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN71">
-        <f>+P71+R71+U71+W71+AD71+AG71</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10406,15 +10458,15 @@
         <v>0</v>
       </c>
       <c r="AL72">
-        <f>+AH72+AJ72+AK72</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AM72">
-        <f>+F72+G72+H72+I72+J72+K72+L72+M72+N72+O72+P72+Q72+S72+T72+V72+X72+Z72+AA72+AB72+AE72+AF72</f>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="AN72">
-        <f>+P72+R72+U72+W72+AD72+AG72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10531,15 +10583,15 @@
         <v>0</v>
       </c>
       <c r="AL73">
-        <f>+AH73+AJ73+AK73</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AM73">
-        <f>+F73+G73+H73+I73+J73+K73+L73+M73+N73+O73+P73+Q73+S73+T73+V73+X73+Z73+AA73+AB73+AE73+AF73</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AN73">
-        <f>+P73+R73+U73+W73+AD73+AG73</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10656,15 +10708,15 @@
         <v>0</v>
       </c>
       <c r="AL74">
-        <f>+AH74+AJ74+AK74</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AM74">
-        <f>+F74+G74+H74+I74+J74+K74+L74+M74+N74+O74+P74+Q74+S74+T74+V74+X74+Z74+AA74+AB74+AE74+AF74</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AN74">
-        <f>+P74+R74+U74+W74+AD74+AG74</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10781,15 +10833,15 @@
         <v>0</v>
       </c>
       <c r="AL75">
-        <f>+AH75+AJ75+AK75</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AM75">
-        <f>+F75+G75+H75+I75+J75+K75+L75+M75+N75+O75+P75+Q75+S75+T75+V75+X75+Z75+AA75+AB75+AE75+AF75</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN75">
-        <f>+P75+R75+U75+W75+AD75+AG75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10906,15 +10958,15 @@
         <v>0</v>
       </c>
       <c r="AL76">
-        <f>+AH76+AJ76+AK76</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="AM76">
-        <f>+F76+G76+H76+I76+J76+K76+L76+M76+N76+O76+P76+Q76+S76+T76+V76+X76+Z76+AA76+AB76+AE76+AF76</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AN76">
-        <f>+P76+R76+U76+W76+AD76+AG76</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11031,15 +11083,15 @@
         <v>0</v>
       </c>
       <c r="AL77">
-        <f>+AH77+AJ77+AK77</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM77">
-        <f>+F77+G77+H77+I77+J77+K77+L77+M77+N77+O77+P77+Q77+S77+T77+V77+X77+Z77+AA77+AB77+AE77+AF77</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN77">
-        <f>+P77+R77+U77+W77+AD77+AG77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11156,15 +11208,15 @@
         <v>0</v>
       </c>
       <c r="AL78">
-        <f>+AH78+AJ78+AK78</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AM78">
-        <f>+F78+G78+H78+I78+J78+K78+L78+M78+N78+O78+P78+Q78+S78+T78+V78+X78+Z78+AA78+AB78+AE78+AF78</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN78">
-        <f>+P78+R78+U78+W78+AD78+AG78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11281,15 +11333,15 @@
         <v>0</v>
       </c>
       <c r="AL79">
-        <f>+AH79+AJ79+AK79</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AM79">
-        <f>+F79+G79+H79+I79+J79+K79+L79+M79+N79+O79+P79+Q79+S79+T79+V79+X79+Z79+AA79+AB79+AE79+AF79</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN79">
-        <f>+P79+R79+U79+W79+AD79+AG79</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11406,15 +11458,15 @@
         <v>0</v>
       </c>
       <c r="AL80">
-        <f>+AH80+AJ80+AK80</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AM80">
-        <f>+F80+G80+H80+I80+J80+K80+L80+M80+N80+O80+P80+Q80+S80+T80+V80+X80+Z80+AA80+AB80+AE80+AF80</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN80">
-        <f>+P80+R80+U80+W80+AD80+AG80</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11531,15 +11583,15 @@
         <v>0</v>
       </c>
       <c r="AL81">
-        <f>+AH81+AJ81+AK81</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AM81">
-        <f>+F81+G81+H81+I81+J81+K81+L81+M81+N81+O81+P81+Q81+S81+T81+V81+X81+Z81+AA81+AB81+AE81+AF81</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AN81">
-        <f>+P81+R81+U81+W81+AD81+AG81</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11656,15 +11708,15 @@
         <v>0</v>
       </c>
       <c r="AL82">
-        <f>+AH82+AJ82+AK82</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM82">
-        <f>+F82+G82+H82+I82+J82+K82+L82+M82+N82+O82+P82+Q82+S82+T82+V82+X82+Z82+AA82+AB82+AE82+AF82</f>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="AN82">
-        <f>+P82+R82+U82+W82+AD82+AG82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11781,15 +11833,15 @@
         <v>0</v>
       </c>
       <c r="AL83">
-        <f>+AH83+AJ83+AK83</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM83">
-        <f>+F83+G83+H83+I83+J83+K83+L83+M83+N83+O83+P83+Q83+S83+T83+V83+X83+Z83+AA83+AB83+AE83+AF83</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN83">
-        <f>+P83+R83+U83+W83+AD83+AG83</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11906,15 +11958,15 @@
         <v>0</v>
       </c>
       <c r="AL84">
-        <f>+AH84+AJ84+AK84</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM84">
-        <f>+F84+G84+H84+I84+J84+K84+L84+M84+N84+O84+P84+Q84+S84+T84+V84+X84+Z84+AA84+AB84+AE84+AF84</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN84">
-        <f>+P84+R84+U84+W84+AD84+AG84</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12031,15 +12083,15 @@
         <v>0</v>
       </c>
       <c r="AL85">
-        <f>+AH85+AJ85+AK85</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM85">
-        <f>+F85+G85+H85+I85+J85+K85+L85+M85+N85+O85+P85+Q85+S85+T85+V85+X85+Z85+AA85+AB85+AE85+AF85</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AN85">
-        <f>+P85+R85+U85+W85+AD85+AG85</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12156,15 +12208,15 @@
         <v>0</v>
       </c>
       <c r="AL86">
-        <f>+AH86+AJ86+AK86</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM86">
-        <f>+F86+G86+H86+I86+J86+K86+L86+M86+N86+O86+P86+Q86+S86+T86+V86+X86+Z86+AA86+AB86+AE86+AF86</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN86">
-        <f>+P86+R86+U86+W86+AD86+AG86</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12281,15 +12333,15 @@
         <v>0</v>
       </c>
       <c r="AL87">
-        <f>+AH87+AJ87+AK87</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM87">
-        <f>+F87+G87+H87+I87+J87+K87+L87+M87+N87+O87+P87+Q87+S87+T87+V87+X87+Z87+AA87+AB87+AE87+AF87</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AN87">
-        <f>+P87+R87+U87+W87+AD87+AG87</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12406,15 +12458,15 @@
         <v>0</v>
       </c>
       <c r="AL88">
-        <f>+AH88+AJ88+AK88</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM88">
-        <f>+F88+G88+H88+I88+J88+K88+L88+M88+N88+O88+P88+Q88+S88+T88+V88+X88+Z88+AA88+AB88+AE88+AF88</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AN88">
-        <f>+P88+R88+U88+W88+AD88+AG88</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12531,15 +12583,15 @@
         <v>0</v>
       </c>
       <c r="AL89">
-        <f>+AH89+AJ89+AK89</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM89">
-        <f>+F89+G89+H89+I89+J89+K89+L89+M89+N89+O89+P89+Q89+S89+T89+V89+X89+Z89+AA89+AB89+AE89+AF89</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="AN89">
-        <f>+P89+R89+U89+W89+AD89+AG89</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12656,15 +12708,15 @@
         <v>0</v>
       </c>
       <c r="AL90">
-        <f>+AH90+AJ90+AK90</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM90">
-        <f>+F90+G90+H90+I90+J90+K90+L90+M90+N90+O90+P90+Q90+S90+T90+V90+X90+Z90+AA90+AB90+AE90+AF90</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AN90">
-        <f>+P90+R90+U90+W90+AD90+AG90</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12781,15 +12833,15 @@
         <v>0</v>
       </c>
       <c r="AL91">
-        <f>+AH91+AJ91+AK91</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM91">
-        <f>+F91+G91+H91+I91+J91+K91+L91+M91+N91+O91+P91+Q91+S91+T91+V91+X91+Z91+AA91+AB91+AE91+AF91</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AN91">
-        <f>+P91+R91+U91+W91+AD91+AG91</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12906,15 +12958,15 @@
         <v>0</v>
       </c>
       <c r="AL92">
-        <f>+AH92+AJ92+AK92</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM92">
-        <f>+F92+G92+H92+I92+J92+K92+L92+M92+N92+O92+P92+Q92+S92+T92+V92+X92+Z92+AA92+AB92+AE92+AF92</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AN92">
-        <f>+P92+R92+U92+W92+AD92+AG92</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13031,15 +13083,15 @@
         <v>0</v>
       </c>
       <c r="AL93">
-        <f>+AH93+AJ93+AK93</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM93">
-        <f>+F93+G93+H93+I93+J93+K93+L93+M93+N93+O93+P93+Q93+S93+T93+V93+X93+Z93+AA93+AB93+AE93+AF93</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="AN93">
-        <f>+P93+R93+U93+W93+AD93+AG93</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13156,15 +13208,15 @@
         <v>0</v>
       </c>
       <c r="AL94">
-        <f>+AH94+AJ94+AK94</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM94">
-        <f>+F94+G94+H94+I94+J94+K94+L94+M94+N94+O94+P94+Q94+S94+T94+V94+X94+Z94+AA94+AB94+AE94+AF94</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN94">
-        <f>+P94+R94+U94+W94+AD94+AG94</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13281,15 +13333,15 @@
         <v>0</v>
       </c>
       <c r="AL95">
-        <f>+AH95+AJ95+AK95</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM95">
-        <f>+F95+G95+H95+I95+J95+K95+L95+M95+N95+O95+P95+Q95+S95+T95+V95+X95+Z95+AA95+AB95+AE95+AF95</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AN95">
-        <f>+P95+R95+U95+W95+AD95+AG95</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13406,15 +13458,15 @@
         <v>0</v>
       </c>
       <c r="AL96">
-        <f>+AH96+AJ96+AK96</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM96">
-        <f>+F96+G96+H96+I96+J96+K96+L96+M96+N96+O96+P96+Q96+S96+T96+V96+X96+Z96+AA96+AB96+AE96+AF96</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN96">
-        <f>+P96+R96+U96+W96+AD96+AG96</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13531,15 +13583,15 @@
         <v>0</v>
       </c>
       <c r="AL97">
-        <f>+AH97+AJ97+AK97</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM97">
-        <f>+F97+G97+H97+I97+J97+K97+L97+M97+N97+O97+P97+Q97+S97+T97+V97+X97+Z97+AA97+AB97+AE97+AF97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN97">
-        <f>+P97+R97+U97+W97+AD97+AG97</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13656,15 +13708,15 @@
         <v>0</v>
       </c>
       <c r="AL98">
-        <f>+AH98+AJ98+AK98</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM98">
-        <f>+F98+G98+H98+I98+J98+K98+L98+M98+N98+O98+P98+Q98+S98+T98+V98+X98+Z98+AA98+AB98+AE98+AF98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN98">
-        <f>+P98+R98+U98+W98+AD98+AG98</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13781,15 +13833,15 @@
         <v>0</v>
       </c>
       <c r="AL99">
-        <f>+AH99+AJ99+AK99</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM99">
-        <f>+F99+G99+H99+I99+J99+K99+L99+M99+N99+O99+P99+Q99+S99+T99+V99+X99+Z99+AA99+AB99+AE99+AF99</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN99">
-        <f>+P99+R99+U99+W99+AD99+AG99</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13906,15 +13958,15 @@
         <v>0</v>
       </c>
       <c r="AL100">
-        <f>+AH100+AJ100+AK100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM100">
-        <f>+F100+G100+H100+I100+J100+K100+L100+M100+N100+O100+P100+Q100+S100+T100+V100+X100+Z100+AA100+AB100+AE100+AF100</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AN100">
-        <f>+P100+R100+U100+W100+AD100+AG100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14031,15 +14083,15 @@
         <v>0</v>
       </c>
       <c r="AL101">
-        <f>+AH101+AJ101+AK101</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM101">
-        <f>+F101+G101+H101+I101+J101+K101+L101+M101+N101+O101+P101+Q101+S101+T101+V101+X101+Z101+AA101+AB101+AE101+AF101</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AN101">
-        <f>+P101+R101+U101+W101+AD101+AG101</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14156,15 +14208,15 @@
         <v>0</v>
       </c>
       <c r="AL102">
-        <f>+AH102+AJ102+AK102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM102">
-        <f>+F102+G102+H102+I102+J102+K102+L102+M102+N102+O102+P102+Q102+S102+T102+V102+X102+Z102+AA102+AB102+AE102+AF102</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AN102">
-        <f>+P102+R102+U102+W102+AD102+AG102</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14281,15 +14333,15 @@
         <v>0</v>
       </c>
       <c r="AL103">
-        <f>+AH103+AJ103+AK103</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM103">
-        <f>+F103+G103+H103+I103+J103+K103+L103+M103+N103+O103+P103+Q103+S103+T103+V103+X103+Z103+AA103+AB103+AE103+AF103</f>
+        <f t="shared" si="4"/>
         <v>1.9</v>
       </c>
       <c r="AN103">
-        <f>+P103+R103+U103+W103+AD103+AG103</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14406,15 +14458,15 @@
         <v>0</v>
       </c>
       <c r="AL104">
-        <f>+AH104+AJ104+AK104</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM104">
-        <f>+F104+G104+H104+I104+J104+K104+L104+M104+N104+O104+P104+Q104+S104+T104+V104+X104+Z104+AA104+AB104+AE104+AF104</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AN104">
-        <f>+P104+R104+U104+W104+AD104+AG104</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14531,15 +14583,15 @@
         <v>0</v>
       </c>
       <c r="AL105">
-        <f>+AH105+AJ105+AK105</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM105">
-        <f>+F105+G105+H105+I105+J105+K105+L105+M105+N105+O105+P105+Q105+S105+T105+V105+X105+Z105+AA105+AB105+AE105+AF105</f>
+        <f t="shared" si="4"/>
         <v>4.3</v>
       </c>
       <c r="AN105">
-        <f>+P105+R105+U105+W105+AD105+AG105</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14656,15 +14708,15 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <f>+AH106+AJ106+AK106</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM106">
-        <f>+F106+G106+H106+I106+J106+K106+L106+M106+N106+O106+P106+Q106+S106+T106+V106+X106+Z106+AA106+AB106+AE106+AF106</f>
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
       <c r="AN106">
-        <f>+P106+R106+U106+W106+AD106+AG106</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14781,15 +14833,15 @@
         <v>0</v>
       </c>
       <c r="AL107">
-        <f>+AH107+AJ107+AK107</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM107">
-        <f>+F107+G107+H107+I107+J107+K107+L107+M107+N107+O107+P107+Q107+S107+T107+V107+X107+Z107+AA107+AB107+AE107+AF107</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN107">
-        <f>+P107+R107+U107+W107+AD107+AG107</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14906,15 +14958,15 @@
         <v>0</v>
       </c>
       <c r="AL108">
-        <f>+AH108+AJ108+AK108</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM108">
-        <f>+F108+G108+H108+I108+J108+K108+L108+M108+N108+O108+P108+Q108+S108+T108+V108+X108+Z108+AA108+AB108+AE108+AF108</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AN108">
-        <f>+P108+R108+U108+W108+AD108+AG108</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15031,15 +15083,15 @@
         <v>0</v>
       </c>
       <c r="AL109">
-        <f>+AH109+AJ109+AK109</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM109">
-        <f>+F109+G109+H109+I109+J109+K109+L109+M109+N109+O109+P109+Q109+S109+T109+V109+X109+Z109+AA109+AB109+AE109+AF109</f>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
       <c r="AN109">
-        <f>+P109+R109+U109+W109+AD109+AG109</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15156,15 +15208,15 @@
         <v>0</v>
       </c>
       <c r="AL110">
-        <f>+AH110+AJ110+AK110</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM110">
-        <f>+F110+G110+H110+I110+J110+K110+L110+M110+N110+O110+P110+Q110+S110+T110+V110+X110+Z110+AA110+AB110+AE110+AF110</f>
+        <f t="shared" si="4"/>
         <v>10.200000000000001</v>
       </c>
       <c r="AN110">
-        <f>+P110+R110+U110+W110+AD110+AG110</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15281,15 +15333,15 @@
         <v>0</v>
       </c>
       <c r="AL111">
-        <f>+AH111+AJ111+AK111</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM111">
-        <f>+F111+G111+H111+I111+J111+K111+L111+M111+N111+O111+P111+Q111+S111+T111+V111+X111+Z111+AA111+AB111+AE111+AF111</f>
+        <f t="shared" si="4"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="AN111">
-        <f>+P111+R111+U111+W111+AD111+AG111</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15406,15 +15458,15 @@
         <v>0</v>
       </c>
       <c r="AL112">
-        <f>+AH112+AJ112+AK112</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM112">
-        <f>+F112+G112+H112+I112+J112+K112+L112+M112+N112+O112+P112+Q112+S112+T112+V112+X112+Z112+AA112+AB112+AE112+AF112</f>
+        <f t="shared" si="4"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="AN112">
-        <f>+P112+R112+U112+W112+AD112+AG112</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15531,15 +15583,15 @@
         <v>0</v>
       </c>
       <c r="AL113">
-        <f>+AH113+AJ113+AK113</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM113">
-        <f>+F113+G113+H113+I113+J113+K113+L113+M113+N113+O113+P113+Q113+S113+T113+V113+X113+Z113+AA113+AB113+AE113+AF113</f>
+        <f t="shared" si="4"/>
         <v>10.1</v>
       </c>
       <c r="AN113">
-        <f>+P113+R113+U113+W113+AD113+AG113</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,15 +15708,15 @@
         <v>0</v>
       </c>
       <c r="AL114">
-        <f>+AH114+AJ114+AK114</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM114">
-        <f>+F114+G114+H114+I114+J114+K114+L114+M114+N114+O114+P114+Q114+S114+T114+V114+X114+Z114+AA114+AB114+AE114+AF114</f>
+        <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
       <c r="AN114">
-        <f>+P114+R114+U114+W114+AD114+AG114</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15781,15 +15833,15 @@
         <v>0</v>
       </c>
       <c r="AL115">
-        <f>+AH115+AJ115+AK115</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM115">
-        <f>+F115+G115+H115+I115+J115+K115+L115+M115+N115+O115+P115+Q115+S115+T115+V115+X115+Z115+AA115+AB115+AE115+AF115</f>
+        <f t="shared" si="4"/>
         <v>6.3</v>
       </c>
       <c r="AN115">
-        <f>+P115+R115+U115+W115+AD115+AG115</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15906,15 +15958,15 @@
         <v>0</v>
       </c>
       <c r="AL116">
-        <f>+AH116+AJ116+AK116</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM116">
-        <f>+F116+G116+H116+I116+J116+K116+L116+M116+N116+O116+P116+Q116+S116+T116+V116+X116+Z116+AA116+AB116+AE116+AF116</f>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="AN116">
-        <f>+P116+R116+U116+W116+AD116+AG116</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16031,15 +16083,15 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <f>+AH117+AJ117+AK117</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM117">
-        <f>+F117+G117+H117+I117+J117+K117+L117+M117+N117+O117+P117+Q117+S117+T117+V117+X117+Z117+AA117+AB117+AE117+AF117</f>
+        <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
       <c r="AN117">
-        <f>+P117+R117+U117+W117+AD117+AG117</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16156,15 +16208,15 @@
         <v>0</v>
       </c>
       <c r="AL118">
-        <f>+AH118+AJ118+AK118</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM118">
-        <f>+F118+G118+H118+I118+J118+K118+L118+M118+N118+O118+P118+Q118+S118+T118+V118+X118+Z118+AA118+AB118+AE118+AF118</f>
+        <f t="shared" si="4"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="AN118">
-        <f>+P118+R118+U118+W118+AD118+AG118</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16281,15 +16333,15 @@
         <v>0</v>
       </c>
       <c r="AL119">
-        <f>+AH119+AJ119+AK119</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM119">
-        <f>+F119+G119+H119+I119+J119+K119+L119+M119+N119+O119+P119+Q119+S119+T119+V119+X119+Z119+AA119+AB119+AE119+AF119</f>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="AN119">
-        <f>+P119+R119+U119+W119+AD119+AG119</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16406,15 +16458,15 @@
         <v>0</v>
       </c>
       <c r="AL120">
-        <f>+AH120+AJ120+AK120</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM120">
-        <f>+F120+G120+H120+I120+J120+K120+L120+M120+N120+O120+P120+Q120+S120+T120+V120+X120+Z120+AA120+AB120+AE120+AF120</f>
+        <f t="shared" si="4"/>
         <v>3.7</v>
       </c>
       <c r="AN120">
-        <f>+P120+R120+U120+W120+AD120+AG120</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16531,15 +16583,15 @@
         <v>0</v>
       </c>
       <c r="AL121">
-        <f>+AH121+AJ121+AK121</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM121">
-        <f>+F121+G121+H121+I121+J121+K121+L121+M121+N121+O121+P121+Q121+S121+T121+V121+X121+Z121+AA121+AB121+AE121+AF121</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AN121">
-        <f>+P121+R121+U121+W121+AD121+AG121</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16656,15 +16708,15 @@
         <v>0</v>
       </c>
       <c r="AL122">
-        <f>+AH122+AJ122+AK122</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM122">
-        <f>+F122+G122+H122+I122+J122+K122+L122+M122+N122+O122+P122+Q122+S122+T122+V122+X122+Z122+AA122+AB122+AE122+AF122</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN122">
-        <f>+P122+R122+U122+W122+AD122+AG122</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16781,15 +16833,15 @@
         <v>0</v>
       </c>
       <c r="AL123">
-        <f>+AH123+AJ123+AK123</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM123">
-        <f>+F123+G123+H123+I123+J123+K123+L123+M123+N123+O123+P123+Q123+S123+T123+V123+X123+Z123+AA123+AB123+AE123+AF123</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN123">
-        <f>+P123+R123+U123+W123+AD123+AG123</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16906,15 +16958,15 @@
         <v>0</v>
       </c>
       <c r="AL124">
-        <f>+AH124+AJ124+AK124</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM124">
-        <f>+F124+G124+H124+I124+J124+K124+L124+M124+N124+O124+P124+Q124+S124+T124+V124+X124+Z124+AA124+AB124+AE124+AF124</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN124">
-        <f>+P124+R124+U124+W124+AD124+AG124</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17031,15 +17083,15 @@
         <v>0</v>
       </c>
       <c r="AL125">
-        <f>+AH125+AJ125+AK125</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM125">
-        <f>+F125+G125+H125+I125+J125+K125+L125+M125+N125+O125+P125+Q125+S125+T125+V125+X125+Z125+AA125+AB125+AE125+AF125</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN125">
-        <f>+P125+R125+U125+W125+AD125+AG125</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17156,15 +17208,15 @@
         <v>0</v>
       </c>
       <c r="AL126">
-        <f>+AH126+AJ126+AK126</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM126">
-        <f>+F126+G126+H126+I126+J126+K126+L126+M126+N126+O126+P126+Q126+S126+T126+V126+X126+Z126+AA126+AB126+AE126+AF126</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AN126">
-        <f>+P126+R126+U126+W126+AD126+AG126</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17281,15 +17333,15 @@
         <v>0</v>
       </c>
       <c r="AL127">
-        <f>+AH127+AJ127+AK127</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM127">
-        <f>+F127+G127+H127+I127+J127+K127+L127+M127+N127+O127+P127+Q127+S127+T127+V127+X127+Z127+AA127+AB127+AE127+AF127</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN127">
-        <f>+P127+R127+U127+W127+AD127+AG127</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17406,15 +17458,15 @@
         <v>0</v>
       </c>
       <c r="AL128">
-        <f>+AH128+AJ128+AK128</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM128">
-        <f>+F128+G128+H128+I128+J128+K128+L128+M128+N128+O128+P128+Q128+S128+T128+V128+X128+Z128+AA128+AB128+AE128+AF128</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN128">
-        <f>+P128+R128+U128+W128+AD128+AG128</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17531,15 +17583,15 @@
         <v>0</v>
       </c>
       <c r="AL129">
-        <f>+AH129+AJ129+AK129</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM129">
-        <f>+F129+G129+H129+I129+J129+K129+L129+M129+N129+O129+P129+Q129+S129+T129+V129+X129+Z129+AA129+AB129+AE129+AF129</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN129">
-        <f>+P129+R129+U129+W129+AD129+AG129</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17656,15 +17708,15 @@
         <v>0</v>
       </c>
       <c r="AL130">
-        <f>+AH130+AJ130+AK130</f>
+        <f t="shared" ref="AL130:AL193" si="6">+AH130+AJ130+AK130</f>
         <v>0</v>
       </c>
       <c r="AM130">
-        <f>+F130+G130+H130+I130+J130+K130+L130+M130+N130+O130+P130+Q130+S130+T130+V130+X130+Z130+AA130+AB130+AE130+AF130</f>
+        <f t="shared" ref="AM130:AM193" si="7">+F130+G130+H130+I130+J130+K130+L130+M130+N130+O130+P130+Q130+S130+T130+V130+X130+Z130+AA130+AB130+AE130+AF130</f>
         <v>0</v>
       </c>
       <c r="AN130">
-        <f>+P130+R130+U130+W130+AD130+AG130</f>
+        <f t="shared" ref="AN130:AN193" si="8">+P130+R130+U130+W130+AD130+AG130</f>
         <v>0</v>
       </c>
     </row>
@@ -17781,15 +17833,15 @@
         <v>0</v>
       </c>
       <c r="AL131">
-        <f>+AH131+AJ131+AK131</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM131">
-        <f>+F131+G131+H131+I131+J131+K131+L131+M131+N131+O131+P131+Q131+S131+T131+V131+X131+Z131+AA131+AB131+AE131+AF131</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN131">
-        <f>+P131+R131+U131+W131+AD131+AG131</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17906,15 +17958,15 @@
         <v>0</v>
       </c>
       <c r="AL132">
-        <f>+AH132+AJ132+AK132</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM132">
-        <f>+F132+G132+H132+I132+J132+K132+L132+M132+N132+O132+P132+Q132+S132+T132+V132+X132+Z132+AA132+AB132+AE132+AF132</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN132">
-        <f>+P132+R132+U132+W132+AD132+AG132</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18031,15 +18083,15 @@
         <v>0</v>
       </c>
       <c r="AL133">
-        <f>+AH133+AJ133+AK133</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM133">
-        <f>+F133+G133+H133+I133+J133+K133+L133+M133+N133+O133+P133+Q133+S133+T133+V133+X133+Z133+AA133+AB133+AE133+AF133</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN133">
-        <f>+P133+R133+U133+W133+AD133+AG133</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18156,15 +18208,15 @@
         <v>0</v>
       </c>
       <c r="AL134">
-        <f>+AH134+AJ134+AK134</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM134">
-        <f>+F134+G134+H134+I134+J134+K134+L134+M134+N134+O134+P134+Q134+S134+T134+V134+X134+Z134+AA134+AB134+AE134+AF134</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN134">
-        <f>+P134+R134+U134+W134+AD134+AG134</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18281,15 +18333,15 @@
         <v>0</v>
       </c>
       <c r="AL135">
-        <f>+AH135+AJ135+AK135</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM135">
-        <f>+F135+G135+H135+I135+J135+K135+L135+M135+N135+O135+P135+Q135+S135+T135+V135+X135+Z135+AA135+AB135+AE135+AF135</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN135">
-        <f>+P135+R135+U135+W135+AD135+AG135</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18406,15 +18458,15 @@
         <v>0</v>
       </c>
       <c r="AL136">
-        <f>+AH136+AJ136+AK136</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM136">
-        <f>+F136+G136+H136+I136+J136+K136+L136+M136+N136+O136+P136+Q136+S136+T136+V136+X136+Z136+AA136+AB136+AE136+AF136</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="AN136">
-        <f>+P136+R136+U136+W136+AD136+AG136</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18531,15 +18583,15 @@
         <v>0</v>
       </c>
       <c r="AL137">
-        <f>+AH137+AJ137+AK137</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM137">
-        <f>+F137+G137+H137+I137+J137+K137+L137+M137+N137+O137+P137+Q137+S137+T137+V137+X137+Z137+AA137+AB137+AE137+AF137</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AN137">
-        <f>+P137+R137+U137+W137+AD137+AG137</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18656,15 +18708,15 @@
         <v>0</v>
       </c>
       <c r="AL138">
-        <f>+AH138+AJ138+AK138</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM138">
-        <f>+F138+G138+H138+I138+J138+K138+L138+M138+N138+O138+P138+Q138+S138+T138+V138+X138+Z138+AA138+AB138+AE138+AF138</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN138">
-        <f>+P138+R138+U138+W138+AD138+AG138</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18781,15 +18833,15 @@
         <v>0</v>
       </c>
       <c r="AL139">
-        <f>+AH139+AJ139+AK139</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM139">
-        <f>+F139+G139+H139+I139+J139+K139+L139+M139+N139+O139+P139+Q139+S139+T139+V139+X139+Z139+AA139+AB139+AE139+AF139</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN139">
-        <f>+P139+R139+U139+W139+AD139+AG139</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18906,15 +18958,15 @@
         <v>0</v>
       </c>
       <c r="AL140">
-        <f>+AH140+AJ140+AK140</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM140">
-        <f>+F140+G140+H140+I140+J140+K140+L140+M140+N140+O140+P140+Q140+S140+T140+V140+X140+Z140+AA140+AB140+AE140+AF140</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="AN140">
-        <f>+P140+R140+U140+W140+AD140+AG140</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19031,15 +19083,15 @@
         <v>0</v>
       </c>
       <c r="AL141">
-        <f>+AH141+AJ141+AK141</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM141">
-        <f>+F141+G141+H141+I141+J141+K141+L141+M141+N141+O141+P141+Q141+S141+T141+V141+X141+Z141+AA141+AB141+AE141+AF141</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="AN141">
-        <f>+P141+R141+U141+W141+AD141+AG141</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19156,15 +19208,15 @@
         <v>0</v>
       </c>
       <c r="AL142">
-        <f>+AH142+AJ142+AK142</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM142">
-        <f>+F142+G142+H142+I142+J142+K142+L142+M142+N142+O142+P142+Q142+S142+T142+V142+X142+Z142+AA142+AB142+AE142+AF142</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AN142">
-        <f>+P142+R142+U142+W142+AD142+AG142</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19281,15 +19333,15 @@
         <v>0</v>
       </c>
       <c r="AL143">
-        <f>+AH143+AJ143+AK143</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM143">
-        <f>+F143+G143+H143+I143+J143+K143+L143+M143+N143+O143+P143+Q143+S143+T143+V143+X143+Z143+AA143+AB143+AE143+AF143</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AN143">
-        <f>+P143+R143+U143+W143+AD143+AG143</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19406,15 +19458,15 @@
         <v>0</v>
       </c>
       <c r="AL144">
-        <f>+AH144+AJ144+AK144</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM144">
-        <f>+F144+G144+H144+I144+J144+K144+L144+M144+N144+O144+P144+Q144+S144+T144+V144+X144+Z144+AA144+AB144+AE144+AF144</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AN144">
-        <f>+P144+R144+U144+W144+AD144+AG144</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19531,15 +19583,15 @@
         <v>0</v>
       </c>
       <c r="AL145">
-        <f>+AH145+AJ145+AK145</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM145">
-        <f>+F145+G145+H145+I145+J145+K145+L145+M145+N145+O145+P145+Q145+S145+T145+V145+X145+Z145+AA145+AB145+AE145+AF145</f>
+        <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="AN145">
-        <f>+P145+R145+U145+W145+AD145+AG145</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19656,15 +19708,15 @@
         <v>0</v>
       </c>
       <c r="AL146">
-        <f>+AH146+AJ146+AK146</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM146">
-        <f>+F146+G146+H146+I146+J146+K146+L146+M146+N146+O146+P146+Q146+S146+T146+V146+X146+Z146+AA146+AB146+AE146+AF146</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AN146">
-        <f>+P146+R146+U146+W146+AD146+AG146</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19781,15 +19833,15 @@
         <v>0</v>
       </c>
       <c r="AL147">
-        <f>+AH147+AJ147+AK147</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM147">
-        <f>+F147+G147+H147+I147+J147+K147+L147+M147+N147+O147+P147+Q147+S147+T147+V147+X147+Z147+AA147+AB147+AE147+AF147</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AN147">
-        <f>+P147+R147+U147+W147+AD147+AG147</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19906,15 +19958,15 @@
         <v>0</v>
       </c>
       <c r="AL148">
-        <f>+AH148+AJ148+AK148</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM148">
-        <f>+F148+G148+H148+I148+J148+K148+L148+M148+N148+O148+P148+Q148+S148+T148+V148+X148+Z148+AA148+AB148+AE148+AF148</f>
+        <f t="shared" si="7"/>
         <v>8.4</v>
       </c>
       <c r="AN148">
-        <f>+P148+R148+U148+W148+AD148+AG148</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20031,15 +20083,15 @@
         <v>0</v>
       </c>
       <c r="AL149">
-        <f>+AH149+AJ149+AK149</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM149">
-        <f>+F149+G149+H149+I149+J149+K149+L149+M149+N149+O149+P149+Q149+S149+T149+V149+X149+Z149+AA149+AB149+AE149+AF149</f>
+        <f t="shared" si="7"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="AN149">
-        <f>+P149+R149+U149+W149+AD149+AG149</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20156,15 +20208,15 @@
         <v>0</v>
       </c>
       <c r="AL150">
-        <f>+AH150+AJ150+AK150</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM150">
-        <f>+F150+G150+H150+I150+J150+K150+L150+M150+N150+O150+P150+Q150+S150+T150+V150+X150+Z150+AA150+AB150+AE150+AF150</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AN150">
-        <f>+P150+R150+U150+W150+AD150+AG150</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20281,15 +20333,15 @@
         <v>0</v>
       </c>
       <c r="AL151">
-        <f>+AH151+AJ151+AK151</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM151">
-        <f>+F151+G151+H151+I151+J151+K151+L151+M151+N151+O151+P151+Q151+S151+T151+V151+X151+Z151+AA151+AB151+AE151+AF151</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AN151">
-        <f>+P151+R151+U151+W151+AD151+AG151</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20406,15 +20458,15 @@
         <v>0</v>
       </c>
       <c r="AL152">
-        <f>+AH152+AJ152+AK152</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM152">
-        <f>+F152+G152+H152+I152+J152+K152+L152+M152+N152+O152+P152+Q152+S152+T152+V152+X152+Z152+AA152+AB152+AE152+AF152</f>
+        <f t="shared" si="7"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="AN152">
-        <f>+P152+R152+U152+W152+AD152+AG152</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20531,15 +20583,15 @@
         <v>0</v>
       </c>
       <c r="AL153">
-        <f>+AH153+AJ153+AK153</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM153">
-        <f>+F153+G153+H153+I153+J153+K153+L153+M153+N153+O153+P153+Q153+S153+T153+V153+X153+Z153+AA153+AB153+AE153+AF153</f>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
       <c r="AN153">
-        <f>+P153+R153+U153+W153+AD153+AG153</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20656,15 +20708,15 @@
         <v>0</v>
       </c>
       <c r="AL154">
-        <f>+AH154+AJ154+AK154</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM154">
-        <f>+F154+G154+H154+I154+J154+K154+L154+M154+N154+O154+P154+Q154+S154+T154+V154+X154+Z154+AA154+AB154+AE154+AF154</f>
+        <f t="shared" si="7"/>
         <v>10.3</v>
       </c>
       <c r="AN154">
-        <f>+P154+R154+U154+W154+AD154+AG154</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20781,15 +20833,15 @@
         <v>0</v>
       </c>
       <c r="AL155">
-        <f>+AH155+AJ155+AK155</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM155">
-        <f>+F155+G155+H155+I155+J155+K155+L155+M155+N155+O155+P155+Q155+S155+T155+V155+X155+Z155+AA155+AB155+AE155+AF155</f>
+        <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="AN155">
-        <f>+P155+R155+U155+W155+AD155+AG155</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -20906,15 +20958,15 @@
         <v>0</v>
       </c>
       <c r="AL156">
-        <f>+AH156+AJ156+AK156</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM156">
-        <f>+F156+G156+H156+I156+J156+K156+L156+M156+N156+O156+P156+Q156+S156+T156+V156+X156+Z156+AA156+AB156+AE156+AF156</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AN156">
-        <f>+P156+R156+U156+W156+AD156+AG156</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21031,15 +21083,15 @@
         <v>0</v>
       </c>
       <c r="AL157">
-        <f>+AH157+AJ157+AK157</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM157">
-        <f>+F157+G157+H157+I157+J157+K157+L157+M157+N157+O157+P157+Q157+S157+T157+V157+X157+Z157+AA157+AB157+AE157+AF157</f>
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
       <c r="AN157">
-        <f>+P157+R157+U157+W157+AD157+AG157</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21156,15 +21208,15 @@
         <v>0</v>
       </c>
       <c r="AL158">
-        <f>+AH158+AJ158+AK158</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM158">
-        <f>+F158+G158+H158+I158+J158+K158+L158+M158+N158+O158+P158+Q158+S158+T158+V158+X158+Z158+AA158+AB158+AE158+AF158</f>
+        <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
       <c r="AN158">
-        <f>+P158+R158+U158+W158+AD158+AG158</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21281,15 +21333,15 @@
         <v>0</v>
       </c>
       <c r="AL159">
-        <f>+AH159+AJ159+AK159</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM159">
-        <f>+F159+G159+H159+I159+J159+K159+L159+M159+N159+O159+P159+Q159+S159+T159+V159+X159+Z159+AA159+AB159+AE159+AF159</f>
+        <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="AN159">
-        <f>+P159+R159+U159+W159+AD159+AG159</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21406,15 +21458,15 @@
         <v>0</v>
       </c>
       <c r="AL160">
-        <f>+AH160+AJ160+AK160</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM160">
-        <f>+F160+G160+H160+I160+J160+K160+L160+M160+N160+O160+P160+Q160+S160+T160+V160+X160+Z160+AA160+AB160+AE160+AF160</f>
+        <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
       <c r="AN160">
-        <f>+P160+R160+U160+W160+AD160+AG160</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21531,15 +21583,15 @@
         <v>0</v>
       </c>
       <c r="AL161">
-        <f>+AH161+AJ161+AK161</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM161">
-        <f>+F161+G161+H161+I161+J161+K161+L161+M161+N161+O161+P161+Q161+S161+T161+V161+X161+Z161+AA161+AB161+AE161+AF161</f>
+        <f t="shared" si="7"/>
         <v>10.8</v>
       </c>
       <c r="AN161">
-        <f>+P161+R161+U161+W161+AD161+AG161</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21656,15 +21708,15 @@
         <v>0</v>
       </c>
       <c r="AL162">
-        <f>+AH162+AJ162+AK162</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM162">
-        <f>+F162+G162+H162+I162+J162+K162+L162+M162+N162+O162+P162+Q162+S162+T162+V162+X162+Z162+AA162+AB162+AE162+AF162</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="AN162">
-        <f>+P162+R162+U162+W162+AD162+AG162</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21781,15 +21833,15 @@
         <v>0</v>
       </c>
       <c r="AL163">
-        <f>+AH163+AJ163+AK163</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM163">
-        <f>+F163+G163+H163+I163+J163+K163+L163+M163+N163+O163+P163+Q163+S163+T163+V163+X163+Z163+AA163+AB163+AE163+AF163</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN163">
-        <f>+P163+R163+U163+W163+AD163+AG163</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -21906,15 +21958,15 @@
         <v>0</v>
       </c>
       <c r="AL164">
-        <f>+AH164+AJ164+AK164</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM164">
-        <f>+F164+G164+H164+I164+J164+K164+L164+M164+N164+O164+P164+Q164+S164+T164+V164+X164+Z164+AA164+AB164+AE164+AF164</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN164">
-        <f>+P164+R164+U164+W164+AD164+AG164</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22031,15 +22083,15 @@
         <v>0</v>
       </c>
       <c r="AL165">
-        <f>+AH165+AJ165+AK165</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="AM165">
-        <f>+F165+G165+H165+I165+J165+K165+L165+M165+N165+O165+P165+Q165+S165+T165+V165+X165+Z165+AA165+AB165+AE165+AF165</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="AN165">
-        <f>+P165+R165+U165+W165+AD165+AG165</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22156,15 +22208,15 @@
         <v>0</v>
       </c>
       <c r="AL166">
-        <f>+AH166+AJ166+AK166</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM166">
-        <f>+F166+G166+H166+I166+J166+K166+L166+M166+N166+O166+P166+Q166+S166+T166+V166+X166+Z166+AA166+AB166+AE166+AF166</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="AN166">
-        <f>+P166+R166+U166+W166+AD166+AG166</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22281,15 +22333,15 @@
         <v>0</v>
       </c>
       <c r="AL167">
-        <f>+AH167+AJ167+AK167</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM167">
-        <f>+F167+G167+H167+I167+J167+K167+L167+M167+N167+O167+P167+Q167+S167+T167+V167+X167+Z167+AA167+AB167+AE167+AF167</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN167">
-        <f>+P167+R167+U167+W167+AD167+AG167</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22406,15 +22458,15 @@
         <v>0</v>
       </c>
       <c r="AL168">
-        <f>+AH168+AJ168+AK168</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="AM168">
-        <f>+F168+G168+H168+I168+J168+K168+L168+M168+N168+O168+P168+Q168+S168+T168+V168+X168+Z168+AA168+AB168+AE168+AF168</f>
+        <f t="shared" si="7"/>
         <v>3.8</v>
       </c>
       <c r="AN168">
-        <f>+P168+R168+U168+W168+AD168+AG168</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22531,15 +22583,15 @@
         <v>0</v>
       </c>
       <c r="AL169">
-        <f>+AH169+AJ169+AK169</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="AM169">
-        <f>+F169+G169+H169+I169+J169+K169+L169+M169+N169+O169+P169+Q169+S169+T169+V169+X169+Z169+AA169+AB169+AE169+AF169</f>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
       <c r="AN169">
-        <f>+P169+R169+U169+W169+AD169+AG169</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22656,15 +22708,15 @@
         <v>0</v>
       </c>
       <c r="AL170">
-        <f>+AH170+AJ170+AK170</f>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="AM170">
-        <f>+F170+G170+H170+I170+J170+K170+L170+M170+N170+O170+P170+Q170+S170+T170+V170+X170+Z170+AA170+AB170+AE170+AF170</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AN170">
-        <f>+P170+R170+U170+W170+AD170+AG170</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22781,15 +22833,15 @@
         <v>0</v>
       </c>
       <c r="AL171">
-        <f>+AH171+AJ171+AK171</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="AM171">
-        <f>+F171+G171+H171+I171+J171+K171+L171+M171+N171+O171+P171+Q171+S171+T171+V171+X171+Z171+AA171+AB171+AE171+AF171</f>
+        <f t="shared" si="7"/>
         <v>3.9</v>
       </c>
       <c r="AN171">
-        <f>+P171+R171+U171+W171+AD171+AG171</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -22906,15 +22958,15 @@
         <v>0</v>
       </c>
       <c r="AL172">
-        <f>+AH172+AJ172+AK172</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="AM172">
-        <f>+F172+G172+H172+I172+J172+K172+L172+M172+N172+O172+P172+Q172+S172+T172+V172+X172+Z172+AA172+AB172+AE172+AF172</f>
+        <f t="shared" si="7"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="AN172">
-        <f>+P172+R172+U172+W172+AD172+AG172</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23031,15 +23083,15 @@
         <v>0</v>
       </c>
       <c r="AL173">
-        <f>+AH173+AJ173+AK173</f>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="AM173">
-        <f>+F173+G173+H173+I173+J173+K173+L173+M173+N173+O173+P173+Q173+S173+T173+V173+X173+Z173+AA173+AB173+AE173+AF173</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AN173">
-        <f>+P173+R173+U173+W173+AD173+AG173</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23156,15 +23208,15 @@
         <v>0</v>
       </c>
       <c r="AL174">
-        <f>+AH174+AJ174+AK174</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="AM174">
-        <f>+F174+G174+H174+I174+J174+K174+L174+M174+N174+O174+P174+Q174+S174+T174+V174+X174+Z174+AA174+AB174+AE174+AF174</f>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="AN174">
-        <f>+P174+R174+U174+W174+AD174+AG174</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23281,15 +23333,15 @@
         <v>0</v>
       </c>
       <c r="AL175">
-        <f>+AH175+AJ175+AK175</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM175">
-        <f>+F175+G175+H175+I175+J175+K175+L175+M175+N175+O175+P175+Q175+S175+T175+V175+X175+Z175+AA175+AB175+AE175+AF175</f>
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
       <c r="AN175">
-        <f>+P175+R175+U175+W175+AD175+AG175</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23406,15 +23458,15 @@
         <v>0</v>
       </c>
       <c r="AL176">
-        <f>+AH176+AJ176+AK176</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM176">
-        <f>+F176+G176+H176+I176+J176+K176+L176+M176+N176+O176+P176+Q176+S176+T176+V176+X176+Z176+AA176+AB176+AE176+AF176</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AN176">
-        <f>+P176+R176+U176+W176+AD176+AG176</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23531,15 +23583,15 @@
         <v>0</v>
       </c>
       <c r="AL177">
-        <f>+AH177+AJ177+AK177</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="AM177">
-        <f>+F177+G177+H177+I177+J177+K177+L177+M177+N177+O177+P177+Q177+S177+T177+V177+X177+Z177+AA177+AB177+AE177+AF177</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AN177">
-        <f>+P177+R177+U177+W177+AD177+AG177</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23656,15 +23708,15 @@
         <v>0</v>
       </c>
       <c r="AL178">
-        <f>+AH178+AJ178+AK178</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="AM178">
-        <f>+F178+G178+H178+I178+J178+K178+L178+M178+N178+O178+P178+Q178+S178+T178+V178+X178+Z178+AA178+AB178+AE178+AF178</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AN178">
-        <f>+P178+R178+U178+W178+AD178+AG178</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23781,15 +23833,15 @@
         <v>0</v>
       </c>
       <c r="AL179">
-        <f>+AH179+AJ179+AK179</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM179">
-        <f>+F179+G179+H179+I179+J179+K179+L179+M179+N179+O179+P179+Q179+S179+T179+V179+X179+Z179+AA179+AB179+AE179+AF179</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AN179">
-        <f>+P179+R179+U179+W179+AD179+AG179</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -23906,15 +23958,15 @@
         <v>0</v>
       </c>
       <c r="AL180">
-        <f>+AH180+AJ180+AK180</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM180">
-        <f>+F180+G180+H180+I180+J180+K180+L180+M180+N180+O180+P180+Q180+S180+T180+V180+X180+Z180+AA180+AB180+AE180+AF180</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AN180">
-        <f>+P180+R180+U180+W180+AD180+AG180</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24031,15 +24083,15 @@
         <v>0</v>
       </c>
       <c r="AL181">
-        <f>+AH181+AJ181+AK181</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM181">
-        <f>+F181+G181+H181+I181+J181+K181+L181+M181+N181+O181+P181+Q181+S181+T181+V181+X181+Z181+AA181+AB181+AE181+AF181</f>
+        <f t="shared" si="7"/>
         <v>18.7</v>
       </c>
       <c r="AN181">
-        <f>+P181+R181+U181+W181+AD181+AG181</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24156,15 +24208,15 @@
         <v>0</v>
       </c>
       <c r="AL182">
-        <f>+AH182+AJ182+AK182</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM182">
-        <f>+F182+G182+H182+I182+J182+K182+L182+M182+N182+O182+P182+Q182+S182+T182+V182+X182+Z182+AA182+AB182+AE182+AF182</f>
+        <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
       <c r="AN182">
-        <f>+P182+R182+U182+W182+AD182+AG182</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24281,15 +24333,15 @@
         <v>0</v>
       </c>
       <c r="AL183">
-        <f>+AH183+AJ183+AK183</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM183">
-        <f>+F183+G183+H183+I183+J183+K183+L183+M183+N183+O183+P183+Q183+S183+T183+V183+X183+Z183+AA183+AB183+AE183+AF183</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN183">
-        <f>+P183+R183+U183+W183+AD183+AG183</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24406,15 +24458,15 @@
         <v>0</v>
       </c>
       <c r="AL184">
-        <f>+AH184+AJ184+AK184</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM184">
-        <f>+F184+G184+H184+I184+J184+K184+L184+M184+N184+O184+P184+Q184+S184+T184+V184+X184+Z184+AA184+AB184+AE184+AF184</f>
+        <f t="shared" si="7"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AN184">
-        <f>+P184+R184+U184+W184+AD184+AG184</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24531,15 +24583,15 @@
         <v>0</v>
       </c>
       <c r="AL185">
-        <f>+AH185+AJ185+AK185</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM185">
-        <f>+F185+G185+H185+I185+J185+K185+L185+M185+N185+O185+P185+Q185+S185+T185+V185+X185+Z185+AA185+AB185+AE185+AF185</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="AN185">
-        <f>+P185+R185+U185+W185+AD185+AG185</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24656,15 +24708,15 @@
         <v>0</v>
       </c>
       <c r="AL186">
-        <f>+AH186+AJ186+AK186</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM186">
-        <f>+F186+G186+H186+I186+J186+K186+L186+M186+N186+O186+P186+Q186+S186+T186+V186+X186+Z186+AA186+AB186+AE186+AF186</f>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="AN186">
-        <f>+P186+R186+U186+W186+AD186+AG186</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24781,15 +24833,15 @@
         <v>0</v>
       </c>
       <c r="AL187">
-        <f>+AH187+AJ187+AK187</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM187">
-        <f>+F187+G187+H187+I187+J187+K187+L187+M187+N187+O187+P187+Q187+S187+T187+V187+X187+Z187+AA187+AB187+AE187+AF187</f>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="AN187">
-        <f>+P187+R187+U187+W187+AD187+AG187</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -24906,15 +24958,15 @@
         <v>0</v>
       </c>
       <c r="AL188">
-        <f>+AH188+AJ188+AK188</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM188">
-        <f>+F188+G188+H188+I188+J188+K188+L188+M188+N188+O188+P188+Q188+S188+T188+V188+X188+Z188+AA188+AB188+AE188+AF188</f>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="AN188">
-        <f>+P188+R188+U188+W188+AD188+AG188</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25031,15 +25083,15 @@
         <v>0</v>
       </c>
       <c r="AL189">
-        <f>+AH189+AJ189+AK189</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM189">
-        <f>+F189+G189+H189+I189+J189+K189+L189+M189+N189+O189+P189+Q189+S189+T189+V189+X189+Z189+AA189+AB189+AE189+AF189</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AN189">
-        <f>+P189+R189+U189+W189+AD189+AG189</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25156,15 +25208,15 @@
         <v>0</v>
       </c>
       <c r="AL190">
-        <f>+AH190+AJ190+AK190</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM190">
-        <f>+F190+G190+H190+I190+J190+K190+L190+M190+N190+O190+P190+Q190+S190+T190+V190+X190+Z190+AA190+AB190+AE190+AF190</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN190">
-        <f>+P190+R190+U190+W190+AD190+AG190</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25281,15 +25333,15 @@
         <v>0</v>
       </c>
       <c r="AL191">
-        <f>+AH191+AJ191+AK191</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM191">
-        <f>+F191+G191+H191+I191+J191+K191+L191+M191+N191+O191+P191+Q191+S191+T191+V191+X191+Z191+AA191+AB191+AE191+AF191</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AN191">
-        <f>+P191+R191+U191+W191+AD191+AG191</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25406,15 +25458,15 @@
         <v>0</v>
       </c>
       <c r="AL192">
-        <f>+AH192+AJ192+AK192</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM192">
-        <f>+F192+G192+H192+I192+J192+K192+L192+M192+N192+O192+P192+Q192+S192+T192+V192+X192+Z192+AA192+AB192+AE192+AF192</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AN192">
-        <f>+P192+R192+U192+W192+AD192+AG192</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25531,15 +25583,15 @@
         <v>0</v>
       </c>
       <c r="AL193">
-        <f>+AH193+AJ193+AK193</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM193">
-        <f>+F193+G193+H193+I193+J193+K193+L193+M193+N193+O193+P193+Q193+S193+T193+V193+X193+Z193+AA193+AB193+AE193+AF193</f>
+        <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AN193">
-        <f>+P193+R193+U193+W193+AD193+AG193</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -25656,15 +25708,15 @@
         <v>0</v>
       </c>
       <c r="AL194">
-        <f>+AH194+AJ194+AK194</f>
+        <f t="shared" ref="AL194:AL257" si="9">+AH194+AJ194+AK194</f>
         <v>0</v>
       </c>
       <c r="AM194">
-        <f>+F194+G194+H194+I194+J194+K194+L194+M194+N194+O194+P194+Q194+S194+T194+V194+X194+Z194+AA194+AB194+AE194+AF194</f>
+        <f t="shared" ref="AM194:AM257" si="10">+F194+G194+H194+I194+J194+K194+L194+M194+N194+O194+P194+Q194+S194+T194+V194+X194+Z194+AA194+AB194+AE194+AF194</f>
         <v>0</v>
       </c>
       <c r="AN194">
-        <f>+P194+R194+U194+W194+AD194+AG194</f>
+        <f t="shared" ref="AN194:AN257" si="11">+P194+R194+U194+W194+AD194+AG194</f>
         <v>0</v>
       </c>
     </row>
@@ -25781,15 +25833,15 @@
         <v>0</v>
       </c>
       <c r="AL195">
-        <f>+AH195+AJ195+AK195</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM195">
-        <f>+F195+G195+H195+I195+J195+K195+L195+M195+N195+O195+P195+Q195+S195+T195+V195+X195+Z195+AA195+AB195+AE195+AF195</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN195">
-        <f>+P195+R195+U195+W195+AD195+AG195</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -25906,15 +25958,15 @@
         <v>0</v>
       </c>
       <c r="AL196">
-        <f>+AH196+AJ196+AK196</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM196">
-        <f>+F196+G196+H196+I196+J196+K196+L196+M196+N196+O196+P196+Q196+S196+T196+V196+X196+Z196+AA196+AB196+AE196+AF196</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN196">
-        <f>+P196+R196+U196+W196+AD196+AG196</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26031,15 +26083,15 @@
         <v>0</v>
       </c>
       <c r="AL197">
-        <f>+AH197+AJ197+AK197</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM197">
-        <f>+F197+G197+H197+I197+J197+K197+L197+M197+N197+O197+P197+Q197+S197+T197+V197+X197+Z197+AA197+AB197+AE197+AF197</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="AN197">
-        <f>+P197+R197+U197+W197+AD197+AG197</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26156,15 +26208,15 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <f>+AH198+AJ198+AK198</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM198">
-        <f>+F198+G198+H198+I198+J198+K198+L198+M198+N198+O198+P198+Q198+S198+T198+V198+X198+Z198+AA198+AB198+AE198+AF198</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="AN198">
-        <f>+P198+R198+U198+W198+AD198+AG198</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26281,15 +26333,15 @@
         <v>0</v>
       </c>
       <c r="AL199">
-        <f>+AH199+AJ199+AK199</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM199">
-        <f>+F199+G199+H199+I199+J199+K199+L199+M199+N199+O199+P199+Q199+S199+T199+V199+X199+Z199+AA199+AB199+AE199+AF199</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN199">
-        <f>+P199+R199+U199+W199+AD199+AG199</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26406,15 +26458,15 @@
         <v>0</v>
       </c>
       <c r="AL200">
-        <f>+AH200+AJ200+AK200</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM200">
-        <f>+F200+G200+H200+I200+J200+K200+L200+M200+N200+O200+P200+Q200+S200+T200+V200+X200+Z200+AA200+AB200+AE200+AF200</f>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="AN200">
-        <f>+P200+R200+U200+W200+AD200+AG200</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26531,15 +26583,15 @@
         <v>0</v>
       </c>
       <c r="AL201">
-        <f>+AH201+AJ201+AK201</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM201">
-        <f>+F201+G201+H201+I201+J201+K201+L201+M201+N201+O201+P201+Q201+S201+T201+V201+X201+Z201+AA201+AB201+AE201+AF201</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN201">
-        <f>+P201+R201+U201+W201+AD201+AG201</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26656,15 +26708,15 @@
         <v>0</v>
       </c>
       <c r="AL202">
-        <f>+AH202+AJ202+AK202</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM202">
-        <f>+F202+G202+H202+I202+J202+K202+L202+M202+N202+O202+P202+Q202+S202+T202+V202+X202+Z202+AA202+AB202+AE202+AF202</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN202">
-        <f>+P202+R202+U202+W202+AD202+AG202</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26781,15 +26833,15 @@
         <v>0</v>
       </c>
       <c r="AL203">
-        <f>+AH203+AJ203+AK203</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM203">
-        <f>+F203+G203+H203+I203+J203+K203+L203+M203+N203+O203+P203+Q203+S203+T203+V203+X203+Z203+AA203+AB203+AE203+AF203</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN203">
-        <f>+P203+R203+U203+W203+AD203+AG203</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26906,15 +26958,15 @@
         <v>0</v>
       </c>
       <c r="AL204">
-        <f>+AH204+AJ204+AK204</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM204">
-        <f>+F204+G204+H204+I204+J204+K204+L204+M204+N204+O204+P204+Q204+S204+T204+V204+X204+Z204+AA204+AB204+AE204+AF204</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN204">
-        <f>+P204+R204+U204+W204+AD204+AG204</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27031,15 +27083,15 @@
         <v>0</v>
       </c>
       <c r="AL205">
-        <f>+AH205+AJ205+AK205</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM205">
-        <f>+F205+G205+H205+I205+J205+K205+L205+M205+N205+O205+P205+Q205+S205+T205+V205+X205+Z205+AA205+AB205+AE205+AF205</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN205">
-        <f>+P205+R205+U205+W205+AD205+AG205</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27156,15 +27208,15 @@
         <v>0</v>
       </c>
       <c r="AL206">
-        <f>+AH206+AJ206+AK206</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM206">
-        <f>+F206+G206+H206+I206+J206+K206+L206+M206+N206+O206+P206+Q206+S206+T206+V206+X206+Z206+AA206+AB206+AE206+AF206</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN206">
-        <f>+P206+R206+U206+W206+AD206+AG206</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27281,15 +27333,15 @@
         <v>0</v>
       </c>
       <c r="AL207">
-        <f>+AH207+AJ207+AK207</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM207">
-        <f>+F207+G207+H207+I207+J207+K207+L207+M207+N207+O207+P207+Q207+S207+T207+V207+X207+Z207+AA207+AB207+AE207+AF207</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN207">
-        <f>+P207+R207+U207+W207+AD207+AG207</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27406,15 +27458,15 @@
         <v>0</v>
       </c>
       <c r="AL208">
-        <f>+AH208+AJ208+AK208</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM208">
-        <f>+F208+G208+H208+I208+J208+K208+L208+M208+N208+O208+P208+Q208+S208+T208+V208+X208+Z208+AA208+AB208+AE208+AF208</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN208">
-        <f>+P208+R208+U208+W208+AD208+AG208</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27531,15 +27583,15 @@
         <v>0</v>
       </c>
       <c r="AL209">
-        <f>+AH209+AJ209+AK209</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM209">
-        <f>+F209+G209+H209+I209+J209+K209+L209+M209+N209+O209+P209+Q209+S209+T209+V209+X209+Z209+AA209+AB209+AE209+AF209</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN209">
-        <f>+P209+R209+U209+W209+AD209+AG209</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27656,15 +27708,15 @@
         <v>0</v>
       </c>
       <c r="AL210">
-        <f>+AH210+AJ210+AK210</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM210">
-        <f>+F210+G210+H210+I210+J210+K210+L210+M210+N210+O210+P210+Q210+S210+T210+V210+X210+Z210+AA210+AB210+AE210+AF210</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN210">
-        <f>+P210+R210+U210+W210+AD210+AG210</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27781,15 +27833,15 @@
         <v>0</v>
       </c>
       <c r="AL211">
-        <f>+AH211+AJ211+AK211</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM211">
-        <f>+F211+G211+H211+I211+J211+K211+L211+M211+N211+O211+P211+Q211+S211+T211+V211+X211+Z211+AA211+AB211+AE211+AF211</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN211">
-        <f>+P211+R211+U211+W211+AD211+AG211</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -27906,15 +27958,15 @@
         <v>0</v>
       </c>
       <c r="AL212">
-        <f>+AH212+AJ212+AK212</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM212">
-        <f>+F212+G212+H212+I212+J212+K212+L212+M212+N212+O212+P212+Q212+S212+T212+V212+X212+Z212+AA212+AB212+AE212+AF212</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN212">
-        <f>+P212+R212+U212+W212+AD212+AG212</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28028,15 +28080,15 @@
         <v>0</v>
       </c>
       <c r="AL213">
-        <f>+AH213+AJ213+AK213</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM213">
-        <f>+F213+G213+H213+I213+J213+K213+L213+M213+N213+O213+P213+Q213+S213+T213+V213+X213+Z213+AA213+AB213+AE213+AF213</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN213">
-        <f>+P213+R213+U213+W213+AD213+AG213</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28153,15 +28205,15 @@
         <v>0</v>
       </c>
       <c r="AL214">
-        <f>+AH214+AJ214+AK214</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM214">
-        <f>+F214+G214+H214+I214+J214+K214+L214+M214+N214+O214+P214+Q214+S214+T214+V214+X214+Z214+AA214+AB214+AE214+AF214</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="AN214">
-        <f>+P214+R214+U214+W214+AD214+AG214</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28278,15 +28330,15 @@
         <v>0</v>
       </c>
       <c r="AL215">
-        <f>+AH215+AJ215+AK215</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM215">
-        <f>+F215+G215+H215+I215+J215+K215+L215+M215+N215+O215+P215+Q215+S215+T215+V215+X215+Z215+AA215+AB215+AE215+AF215</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN215">
-        <f>+P215+R215+U215+W215+AD215+AG215</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28403,15 +28455,15 @@
         <v>0</v>
       </c>
       <c r="AL216">
-        <f>+AH216+AJ216+AK216</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM216">
-        <f>+F216+G216+H216+I216+J216+K216+L216+M216+N216+O216+P216+Q216+S216+T216+V216+X216+Z216+AA216+AB216+AE216+AF216</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN216">
-        <f>+P216+R216+U216+W216+AD216+AG216</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28528,15 +28580,15 @@
         <v>0</v>
       </c>
       <c r="AL217">
-        <f>+AH217+AJ217+AK217</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM217">
-        <f>+F217+G217+H217+I217+J217+K217+L217+M217+N217+O217+P217+Q217+S217+T217+V217+X217+Z217+AA217+AB217+AE217+AF217</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN217">
-        <f>+P217+R217+U217+W217+AD217+AG217</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28653,15 +28705,15 @@
         <v>0</v>
       </c>
       <c r="AL218">
-        <f>+AH218+AJ218+AK218</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM218">
-        <f>+F218+G218+H218+I218+J218+K218+L218+M218+N218+O218+P218+Q218+S218+T218+V218+X218+Z218+AA218+AB218+AE218+AF218</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN218">
-        <f>+P218+R218+U218+W218+AD218+AG218</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28778,15 +28830,15 @@
         <v>0</v>
       </c>
       <c r="AL219">
-        <f>+AH219+AJ219+AK219</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM219">
-        <f>+F219+G219+H219+I219+J219+K219+L219+M219+N219+O219+P219+Q219+S219+T219+V219+X219+Z219+AA219+AB219+AE219+AF219</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN219">
-        <f>+P219+R219+U219+W219+AD219+AG219</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -28903,15 +28955,15 @@
         <v>0</v>
       </c>
       <c r="AL220">
-        <f>+AH220+AJ220+AK220</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM220">
-        <f>+F220+G220+H220+I220+J220+K220+L220+M220+N220+O220+P220+Q220+S220+T220+V220+X220+Z220+AA220+AB220+AE220+AF220</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN220">
-        <f>+P220+R220+U220+W220+AD220+AG220</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29028,15 +29080,15 @@
         <v>0</v>
       </c>
       <c r="AL221">
-        <f>+AH221+AJ221+AK221</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM221">
-        <f>+F221+G221+H221+I221+J221+K221+L221+M221+N221+O221+P221+Q221+S221+T221+V221+X221+Z221+AA221+AB221+AE221+AF221</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="AN221">
-        <f>+P221+R221+U221+W221+AD221+AG221</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29153,15 +29205,15 @@
         <v>0</v>
       </c>
       <c r="AL222">
-        <f>+AH222+AJ222+AK222</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM222">
-        <f>+F222+G222+H222+I222+J222+K222+L222+M222+N222+O222+P222+Q222+S222+T222+V222+X222+Z222+AA222+AB222+AE222+AF222</f>
+        <f t="shared" si="10"/>
         <v>13.3</v>
       </c>
       <c r="AN222">
-        <f>+P222+R222+U222+W222+AD222+AG222</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29278,15 +29330,15 @@
         <v>0</v>
       </c>
       <c r="AL223">
-        <f>+AH223+AJ223+AK223</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM223">
-        <f>+F223+G223+H223+I223+J223+K223+L223+M223+N223+O223+P223+Q223+S223+T223+V223+X223+Z223+AA223+AB223+AE223+AF223</f>
+        <f t="shared" si="10"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="AN223">
-        <f>+P223+R223+U223+W223+AD223+AG223</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29403,15 +29455,15 @@
         <v>0</v>
       </c>
       <c r="AL224">
-        <f>+AH224+AJ224+AK224</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM224">
-        <f>+F224+G224+H224+I224+J224+K224+L224+M224+N224+O224+P224+Q224+S224+T224+V224+X224+Z224+AA224+AB224+AE224+AF224</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AN224">
-        <f>+P224+R224+U224+W224+AD224+AG224</f>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
     </row>
@@ -29528,15 +29580,15 @@
         <v>0</v>
       </c>
       <c r="AL225">
-        <f>+AH225+AJ225+AK225</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM225">
-        <f>+F225+G225+H225+I225+J225+K225+L225+M225+N225+O225+P225+Q225+S225+T225+V225+X225+Z225+AA225+AB225+AE225+AF225</f>
+        <f t="shared" si="10"/>
         <v>17.5</v>
       </c>
       <c r="AN225">
-        <f>+P225+R225+U225+W225+AD225+AG225</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29653,15 +29705,15 @@
         <v>0</v>
       </c>
       <c r="AL226">
-        <f>+AH226+AJ226+AK226</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM226">
-        <f>+F226+G226+H226+I226+J226+K226+L226+M226+N226+O226+P226+Q226+S226+T226+V226+X226+Z226+AA226+AB226+AE226+AF226</f>
+        <f t="shared" si="10"/>
         <v>14.3</v>
       </c>
       <c r="AN226">
-        <f>+P226+R226+U226+W226+AD226+AG226</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29778,15 +29830,15 @@
         <v>0</v>
       </c>
       <c r="AL227">
-        <f>+AH227+AJ227+AK227</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM227">
-        <f>+F227+G227+H227+I227+J227+K227+L227+M227+N227+O227+P227+Q227+S227+T227+V227+X227+Z227+AA227+AB227+AE227+AF227</f>
+        <f t="shared" si="10"/>
         <v>10.299999999999999</v>
       </c>
       <c r="AN227">
-        <f>+P227+R227+U227+W227+AD227+AG227</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -29903,15 +29955,15 @@
         <v>0</v>
       </c>
       <c r="AL228">
-        <f>+AH228+AJ228+AK228</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM228">
-        <f>+F228+G228+H228+I228+J228+K228+L228+M228+N228+O228+P228+Q228+S228+T228+V228+X228+Z228+AA228+AB228+AE228+AF228</f>
+        <f t="shared" si="10"/>
         <v>12.8</v>
       </c>
       <c r="AN228">
-        <f>+P228+R228+U228+W228+AD228+AG228</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -30028,15 +30080,15 @@
         <v>0</v>
       </c>
       <c r="AL229">
-        <f>+AH229+AJ229+AK229</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM229">
-        <f>+F229+G229+H229+I229+J229+K229+L229+M229+N229+O229+P229+Q229+S229+T229+V229+X229+Z229+AA229+AB229+AE229+AF229</f>
+        <f t="shared" si="10"/>
         <v>13.1</v>
       </c>
       <c r="AN229">
-        <f>+P229+R229+U229+W229+AD229+AG229</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -30153,15 +30205,15 @@
         <v>0</v>
       </c>
       <c r="AL230">
-        <f>+AH230+AJ230+AK230</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM230">
-        <f>+F230+G230+H230+I230+J230+K230+L230+M230+N230+O230+P230+Q230+S230+T230+V230+X230+Z230+AA230+AB230+AE230+AF230</f>
+        <f t="shared" si="10"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AN230">
-        <f>+P230+R230+U230+W230+AD230+AG230</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -30278,15 +30330,15 @@
         <v>0</v>
       </c>
       <c r="AL231">
-        <f>+AH231+AJ231+AK231</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM231">
-        <f>+F231+G231+H231+I231+J231+K231+L231+M231+N231+O231+P231+Q231+S231+T231+V231+X231+Z231+AA231+AB231+AE231+AF231</f>
+        <f t="shared" si="10"/>
         <v>18.2</v>
       </c>
       <c r="AN231">
-        <f>+P231+R231+U231+W231+AD231+AG231</f>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
     </row>
@@ -30403,15 +30455,15 @@
         <v>0</v>
       </c>
       <c r="AL232">
-        <f>+AH232+AJ232+AK232</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM232">
-        <f>+F232+G232+H232+I232+J232+K232+L232+M232+N232+O232+P232+Q232+S232+T232+V232+X232+Z232+AA232+AB232+AE232+AF232</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="AN232">
-        <f>+P232+R232+U232+W232+AD232+AG232</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -30528,15 +30580,15 @@
         <v>0</v>
       </c>
       <c r="AL233">
-        <f>+AH233+AJ233+AK233</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM233">
-        <f>+F233+G233+H233+I233+J233+K233+L233+M233+N233+O233+P233+Q233+S233+T233+V233+X233+Z233+AA233+AB233+AE233+AF233</f>
+        <f t="shared" si="10"/>
         <v>12.2</v>
       </c>
       <c r="AN233">
-        <f>+P233+R233+U233+W233+AD233+AG233</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
@@ -30653,15 +30705,15 @@
         <v>0</v>
       </c>
       <c r="AL234">
-        <f>+AH234+AJ234+AK234</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM234">
-        <f>+F234+G234+H234+I234+J234+K234+L234+M234+N234+O234+P234+Q234+S234+T234+V234+X234+Z234+AA234+AB234+AE234+AF234</f>
+        <f t="shared" si="10"/>
         <v>11.5</v>
       </c>
       <c r="AN234">
-        <f>+P234+R234+U234+W234+AD234+AG234</f>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -30778,15 +30830,15 @@
         <v>0</v>
       </c>
       <c r="AL235">
-        <f>+AH235+AJ235+AK235</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM235">
-        <f>+F235+G235+H235+I235+J235+K235+L235+M235+N235+O235+P235+Q235+S235+T235+V235+X235+Z235+AA235+AB235+AE235+AF235</f>
+        <f t="shared" si="10"/>
         <v>13.8</v>
       </c>
       <c r="AN235">
-        <f>+P235+R235+U235+W235+AD235+AG235</f>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
     </row>
@@ -30903,15 +30955,15 @@
         <v>0</v>
       </c>
       <c r="AL236">
-        <f>+AH236+AJ236+AK236</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM236">
-        <f>+F236+G236+H236+I236+J236+K236+L236+M236+N236+O236+P236+Q236+S236+T236+V236+X236+Z236+AA236+AB236+AE236+AF236</f>
+        <f t="shared" si="10"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AN236">
-        <f>+P236+R236+U236+W236+AD236+AG236</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31028,15 +31080,15 @@
         <v>0</v>
       </c>
       <c r="AL237">
-        <f>+AH237+AJ237+AK237</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM237">
-        <f>+F237+G237+H237+I237+J237+K237+L237+M237+N237+O237+P237+Q237+S237+T237+V237+X237+Z237+AA237+AB237+AE237+AF237</f>
+        <f t="shared" si="10"/>
         <v>17.5</v>
       </c>
       <c r="AN237">
-        <f>+P237+R237+U237+W237+AD237+AG237</f>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
     </row>
@@ -31153,15 +31205,15 @@
         <v>0</v>
       </c>
       <c r="AL238">
-        <f>+AH238+AJ238+AK238</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM238">
-        <f>+F238+G238+H238+I238+J238+K238+L238+M238+N238+O238+P238+Q238+S238+T238+V238+X238+Z238+AA238+AB238+AE238+AF238</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="AN238">
-        <f>+P238+R238+U238+W238+AD238+AG238</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
@@ -31278,15 +31330,15 @@
         <v>0</v>
       </c>
       <c r="AL239">
-        <f>+AH239+AJ239+AK239</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM239">
-        <f>+F239+G239+H239+I239+J239+K239+L239+M239+N239+O239+P239+Q239+S239+T239+V239+X239+Z239+AA239+AB239+AE239+AF239</f>
+        <f t="shared" si="10"/>
         <v>15.9</v>
       </c>
       <c r="AN239">
-        <f>+P239+R239+U239+W239+AD239+AG239</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -31403,15 +31455,15 @@
         <v>0</v>
       </c>
       <c r="AL240">
-        <f>+AH240+AJ240+AK240</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM240">
-        <f>+F240+G240+H240+I240+J240+K240+L240+M240+N240+O240+P240+Q240+S240+T240+V240+X240+Z240+AA240+AB240+AE240+AF240</f>
+        <f t="shared" si="10"/>
         <v>29.000000000000004</v>
       </c>
       <c r="AN240">
-        <f>+P240+R240+U240+W240+AD240+AG240</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
@@ -31528,15 +31580,15 @@
         <v>0</v>
       </c>
       <c r="AL241">
-        <f>+AH241+AJ241+AK241</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM241">
-        <f>+F241+G241+H241+I241+J241+K241+L241+M241+N241+O241+P241+Q241+S241+T241+V241+X241+Z241+AA241+AB241+AE241+AF241</f>
+        <f t="shared" si="10"/>
         <v>26.4</v>
       </c>
       <c r="AN241">
-        <f>+P241+R241+U241+W241+AD241+AG241</f>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
     </row>
@@ -31653,15 +31705,15 @@
         <v>2</v>
       </c>
       <c r="AL242">
-        <f>+AH242+AJ242+AK242</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AM242">
-        <f>+F242+G242+H242+I242+J242+K242+L242+M242+N242+O242+P242+Q242+S242+T242+V242+X242+Z242+AA242+AB242+AE242+AF242</f>
+        <f t="shared" si="10"/>
         <v>29.5</v>
       </c>
       <c r="AN242">
-        <f>+P242+R242+U242+W242+AD242+AG242</f>
+        <f t="shared" si="11"/>
         <v>20.5</v>
       </c>
     </row>
@@ -31778,15 +31830,15 @@
         <v>0</v>
       </c>
       <c r="AL243">
-        <f>+AH243+AJ243+AK243</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM243">
-        <f>+F243+G243+H243+I243+J243+K243+L243+M243+N243+O243+P243+Q243+S243+T243+V243+X243+Z243+AA243+AB243+AE243+AF243</f>
+        <f t="shared" si="10"/>
         <v>27.4</v>
       </c>
       <c r="AN243">
-        <f>+P243+R243+U243+W243+AD243+AG243</f>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
@@ -31903,15 +31955,15 @@
         <v>0</v>
       </c>
       <c r="AL244">
-        <f>+AH244+AJ244+AK244</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM244">
-        <f>+F244+G244+H244+I244+J244+K244+L244+M244+N244+O244+P244+Q244+S244+T244+V244+X244+Z244+AA244+AB244+AE244+AF244</f>
+        <f t="shared" si="10"/>
         <v>29.099999999999998</v>
       </c>
       <c r="AN244">
-        <f>+P244+R244+U244+W244+AD244+AG244</f>
+        <f t="shared" si="11"/>
         <v>28.900000000000002</v>
       </c>
     </row>
@@ -32028,15 +32080,15 @@
         <v>5</v>
       </c>
       <c r="AL245">
-        <f>+AH245+AJ245+AK245</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AM245">
-        <f>+F245+G245+H245+I245+J245+K245+L245+M245+N245+O245+P245+Q245+S245+T245+V245+X245+Z245+AA245+AB245+AE245+AF245</f>
+        <f t="shared" si="10"/>
         <v>40.800000000000004</v>
       </c>
       <c r="AN245">
-        <f>+P245+R245+U245+W245+AD245+AG245</f>
+        <f t="shared" si="11"/>
         <v>38.299999999999997</v>
       </c>
     </row>
@@ -32153,15 +32205,15 @@
         <v>3</v>
       </c>
       <c r="AL246">
-        <f>+AH246+AJ246+AK246</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AM246">
-        <f>+F246+G246+H246+I246+J246+K246+L246+M246+N246+O246+P246+Q246+S246+T246+V246+X246+Z246+AA246+AB246+AE246+AF246</f>
+        <f t="shared" si="10"/>
         <v>38.1</v>
       </c>
       <c r="AN246">
-        <f>+P246+R246+U246+W246+AD246+AG246</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
     </row>
@@ -32278,15 +32330,15 @@
         <v>1</v>
       </c>
       <c r="AL247">
-        <f>+AH247+AJ247+AK247</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AM247">
-        <f>+F247+G247+H247+I247+J247+K247+L247+M247+N247+O247+P247+Q247+S247+T247+V247+X247+Z247+AA247+AB247+AE247+AF247</f>
+        <f t="shared" si="10"/>
         <v>35.9</v>
       </c>
       <c r="AN247">
-        <f>+P247+R247+U247+W247+AD247+AG247</f>
+        <f t="shared" si="11"/>
         <v>23.8</v>
       </c>
     </row>
@@ -32403,15 +32455,15 @@
         <v>0</v>
       </c>
       <c r="AL248">
-        <f>+AH248+AJ248+AK248</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM248">
-        <f>+F248+G248+H248+I248+J248+K248+L248+M248+N248+O248+P248+Q248+S248+T248+V248+X248+Z248+AA248+AB248+AE248+AF248</f>
+        <f t="shared" si="10"/>
         <v>22.900000000000002</v>
       </c>
       <c r="AN248">
-        <f>+P248+R248+U248+W248+AD248+AG248</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -32528,15 +32580,15 @@
         <v>0</v>
       </c>
       <c r="AL249">
-        <f>+AH249+AJ249+AK249</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM249">
-        <f>+F249+G249+H249+I249+J249+K249+L249+M249+N249+O249+P249+Q249+S249+T249+V249+X249+Z249+AA249+AB249+AE249+AF249</f>
+        <f t="shared" si="10"/>
         <v>11.3</v>
       </c>
       <c r="AN249">
-        <f>+P249+R249+U249+W249+AD249+AG249</f>
+        <f t="shared" si="11"/>
         <v>15.5</v>
       </c>
     </row>
@@ -32653,15 +32705,15 @@
         <v>0</v>
       </c>
       <c r="AL250">
-        <f>+AH250+AJ250+AK250</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM250">
-        <f>+F250+G250+H250+I250+J250+K250+L250+M250+N250+O250+P250+Q250+S250+T250+V250+X250+Z250+AA250+AB250+AE250+AF250</f>
+        <f t="shared" si="10"/>
         <v>6.3</v>
       </c>
       <c r="AN250">
-        <f>+P250+R250+U250+W250+AD250+AG250</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
@@ -32778,15 +32830,15 @@
         <v>0</v>
       </c>
       <c r="AL251">
-        <f>+AH251+AJ251+AK251</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM251">
-        <f>+F251+G251+H251+I251+J251+K251+L251+M251+N251+O251+P251+Q251+S251+T251+V251+X251+Z251+AA251+AB251+AE251+AF251</f>
+        <f t="shared" si="10"/>
         <v>24.5</v>
       </c>
       <c r="AN251">
-        <f>+P251+R251+U251+W251+AD251+AG251</f>
+        <f t="shared" si="11"/>
         <v>28.5</v>
       </c>
     </row>
@@ -32903,15 +32955,15 @@
         <v>0</v>
       </c>
       <c r="AL252">
-        <f>+AH252+AJ252+AK252</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM252">
-        <f>+F252+G252+H252+I252+J252+K252+L252+M252+N252+O252+P252+Q252+S252+T252+V252+X252+Z252+AA252+AB252+AE252+AF252</f>
+        <f t="shared" si="10"/>
         <v>24.3</v>
       </c>
       <c r="AN252">
-        <f>+P252+R252+U252+W252+AD252+AG252</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
@@ -33028,15 +33080,15 @@
         <v>0</v>
       </c>
       <c r="AL253">
-        <f>+AH253+AJ253+AK253</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM253">
-        <f>+F253+G253+H253+I253+J253+K253+L253+M253+N253+O253+P253+Q253+S253+T253+V253+X253+Z253+AA253+AB253+AE253+AF253</f>
+        <f t="shared" si="10"/>
         <v>17.900000000000002</v>
       </c>
       <c r="AN253">
-        <f>+P253+R253+U253+W253+AD253+AG253</f>
+        <f t="shared" si="11"/>
         <v>14.3</v>
       </c>
     </row>
@@ -33153,15 +33205,15 @@
         <v>0</v>
       </c>
       <c r="AL254">
-        <f>+AH254+AJ254+AK254</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM254">
-        <f>+F254+G254+H254+I254+J254+K254+L254+M254+N254+O254+P254+Q254+S254+T254+V254+X254+Z254+AA254+AB254+AE254+AF254</f>
+        <f t="shared" si="10"/>
         <v>18.5</v>
       </c>
       <c r="AN254">
-        <f>+P254+R254+U254+W254+AD254+AG254</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
@@ -33278,15 +33330,15 @@
         <v>0</v>
       </c>
       <c r="AL255">
-        <f>+AH255+AJ255+AK255</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM255">
-        <f>+F255+G255+H255+I255+J255+K255+L255+M255+N255+O255+P255+Q255+S255+T255+V255+X255+Z255+AA255+AB255+AE255+AF255</f>
+        <f t="shared" si="10"/>
         <v>17.200000000000003</v>
       </c>
       <c r="AN255">
-        <f>+P255+R255+U255+W255+AD255+AG255</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
@@ -33403,15 +33455,15 @@
         <v>0</v>
       </c>
       <c r="AL256">
-        <f>+AH256+AJ256+AK256</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM256">
-        <f>+F256+G256+H256+I256+J256+K256+L256+M256+N256+O256+P256+Q256+S256+T256+V256+X256+Z256+AA256+AB256+AE256+AF256</f>
+        <f t="shared" si="10"/>
         <v>23.1</v>
       </c>
       <c r="AN256">
-        <f>+P256+R256+U256+W256+AD256+AG256</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
@@ -33528,15 +33580,15 @@
         <v>0</v>
       </c>
       <c r="AL257">
-        <f>+AH257+AJ257+AK257</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM257">
-        <f>+F257+G257+H257+I257+J257+K257+L257+M257+N257+O257+P257+Q257+S257+T257+V257+X257+Z257+AA257+AB257+AE257+AF257</f>
+        <f t="shared" si="10"/>
         <v>29.599999999999998</v>
       </c>
       <c r="AN257">
-        <f>+P257+R257+U257+W257+AD257+AG257</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
     </row>
@@ -33653,15 +33705,15 @@
         <v>0</v>
       </c>
       <c r="AL258">
-        <f>+AH258+AJ258+AK258</f>
+        <f t="shared" ref="AL258:AL321" si="12">+AH258+AJ258+AK258</f>
         <v>0</v>
       </c>
       <c r="AM258">
-        <f>+F258+G258+H258+I258+J258+K258+L258+M258+N258+O258+P258+Q258+S258+T258+V258+X258+Z258+AA258+AB258+AE258+AF258</f>
+        <f t="shared" ref="AM258:AM281" si="13">+F258+G258+H258+I258+J258+K258+L258+M258+N258+O258+P258+Q258+S258+T258+V258+X258+Z258+AA258+AB258+AE258+AF258</f>
         <v>31.1</v>
       </c>
       <c r="AN258">
-        <f>+P258+R258+U258+W258+AD258+AG258</f>
+        <f t="shared" ref="AN258:AN281" si="14">+P258+R258+U258+W258+AD258+AG258</f>
         <v>28</v>
       </c>
     </row>
@@ -33778,15 +33830,15 @@
         <v>0.2</v>
       </c>
       <c r="AL259">
-        <f>+AH259+AJ259+AK259</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="AM259">
-        <f>+F259+G259+H259+I259+J259+K259+L259+M259+N259+O259+P259+Q259+S259+T259+V259+X259+Z259+AA259+AB259+AE259+AF259</f>
+        <f t="shared" si="13"/>
         <v>28.299999999999997</v>
       </c>
       <c r="AN259">
-        <f>+P259+R259+U259+W259+AD259+AG259</f>
+        <f t="shared" si="14"/>
         <v>25.6</v>
       </c>
     </row>
@@ -33903,15 +33955,15 @@
         <v>0.3</v>
       </c>
       <c r="AL260">
-        <f>+AH260+AJ260+AK260</f>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="AM260">
-        <f>+F260+G260+H260+I260+J260+K260+L260+M260+N260+O260+P260+Q260+S260+T260+V260+X260+Z260+AA260+AB260+AE260+AF260</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AN260">
-        <f>+P260+R260+U260+W260+AD260+AG260</f>
+        <f t="shared" si="14"/>
         <v>12.3</v>
       </c>
     </row>
@@ -34028,15 +34080,15 @@
         <v>3</v>
       </c>
       <c r="AL261">
-        <f>+AH261+AJ261+AK261</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AM261">
-        <f>+F261+G261+H261+I261+J261+K261+L261+M261+N261+O261+P261+Q261+S261+T261+V261+X261+Z261+AA261+AB261+AE261+AF261</f>
+        <f t="shared" si="13"/>
         <v>13.4</v>
       </c>
       <c r="AN261">
-        <f>+P261+R261+U261+W261+AD261+AG261</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
     </row>
@@ -34153,15 +34205,15 @@
         <v>0</v>
       </c>
       <c r="AL262">
-        <f>+AH262+AJ262+AK262</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM262">
-        <f>+F262+G262+H262+I262+J262+K262+L262+M262+N262+O262+P262+Q262+S262+T262+V262+X262+Z262+AA262+AB262+AE262+AF262</f>
+        <f t="shared" si="13"/>
         <v>20.8</v>
       </c>
       <c r="AN262">
-        <f>+P262+R262+U262+W262+AD262+AG262</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
     </row>
@@ -34278,15 +34330,15 @@
         <v>4</v>
       </c>
       <c r="AL263">
-        <f>+AH263+AJ263+AK263</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AM263">
-        <f>+F263+G263+H263+I263+J263+K263+L263+M263+N263+O263+P263+Q263+S263+T263+V263+X263+Z263+AA263+AB263+AE263+AF263</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="AN263">
-        <f>+P263+R263+U263+W263+AD263+AG263</f>
+        <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
     </row>
@@ -34403,15 +34455,15 @@
         <v>0</v>
       </c>
       <c r="AL264">
-        <f>+AH264+AJ264+AK264</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM264">
-        <f>+F264+G264+H264+I264+J264+K264+L264+M264+N264+O264+P264+Q264+S264+T264+V264+X264+Z264+AA264+AB264+AE264+AF264</f>
+        <f t="shared" si="13"/>
         <v>19.399999999999999</v>
       </c>
       <c r="AN264">
-        <f>+P264+R264+U264+W264+AD264+AG264</f>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
     </row>
@@ -34528,15 +34580,15 @@
         <v>15</v>
       </c>
       <c r="AL265">
-        <f>+AH265+AJ265+AK265</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="AM265">
-        <f>+F265+G265+H265+I265+J265+K265+L265+M265+N265+O265+P265+Q265+S265+T265+V265+X265+Z265+AA265+AB265+AE265+AF265</f>
+        <f t="shared" si="13"/>
         <v>19.2</v>
       </c>
       <c r="AN265">
-        <f>+P265+R265+U265+W265+AD265+AG265</f>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
     </row>
@@ -34653,15 +34705,15 @@
         <v>3</v>
       </c>
       <c r="AL266">
-        <f>+AH266+AJ266+AK266</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AM266">
-        <f>+F266+G266+H266+I266+J266+K266+L266+M266+N266+O266+P266+Q266+S266+T266+V266+X266+Z266+AA266+AB266+AE266+AF266</f>
+        <f t="shared" si="13"/>
         <v>22.9</v>
       </c>
       <c r="AN266">
-        <f>+P266+R266+U266+W266+AD266+AG266</f>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
     </row>
@@ -34778,15 +34830,15 @@
         <v>3</v>
       </c>
       <c r="AL267">
-        <f>+AH267+AJ267+AK267</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AM267">
-        <f>+F267+G267+H267+I267+J267+K267+L267+M267+N267+O267+P267+Q267+S267+T267+V267+X267+Z267+AA267+AB267+AE267+AF267</f>
+        <f t="shared" si="13"/>
         <v>22.7</v>
       </c>
       <c r="AN267">
-        <f>+P267+R267+U267+W267+AD267+AG267</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
     </row>
@@ -34903,15 +34955,15 @@
         <v>0</v>
       </c>
       <c r="AL268">
-        <f>+AH268+AJ268+AK268</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM268">
-        <f>+F268+G268+H268+I268+J268+K268+L268+M268+N268+O268+P268+Q268+S268+T268+V268+X268+Z268+AA268+AB268+AE268+AF268</f>
+        <f t="shared" si="13"/>
         <v>30.4</v>
       </c>
       <c r="AN268">
-        <f>+P268+R268+U268+W268+AD268+AG268</f>
+        <f t="shared" si="14"/>
         <v>24.5</v>
       </c>
     </row>
@@ -35028,15 +35080,15 @@
         <v>0</v>
       </c>
       <c r="AL269">
-        <f>+AH269+AJ269+AK269</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM269">
-        <f>+F269+G269+H269+I269+J269+K269+L269+M269+N269+O269+P269+Q269+S269+T269+V269+X269+Z269+AA269+AB269+AE269+AF269</f>
+        <f t="shared" si="13"/>
         <v>24.9</v>
       </c>
       <c r="AN269">
-        <f>+P269+R269+U269+W269+AD269+AG269</f>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
     </row>
@@ -35153,15 +35205,15 @@
         <v>0.5</v>
       </c>
       <c r="AL270">
-        <f>+AH270+AJ270+AK270</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="AM270">
-        <f>+F270+G270+H270+I270+J270+K270+L270+M270+N270+O270+P270+Q270+S270+T270+V270+X270+Z270+AA270+AB270+AE270+AF270</f>
+        <f t="shared" si="13"/>
         <v>16.700000000000003</v>
       </c>
       <c r="AN270">
-        <f>+P270+R270+U270+W270+AD270+AG270</f>
+        <f t="shared" si="14"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -35278,15 +35330,15 @@
         <v>0</v>
       </c>
       <c r="AL271">
-        <f>+AH271+AJ271+AK271</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM271">
-        <f>+F271+G271+H271+I271+J271+K271+L271+M271+N271+O271+P271+Q271+S271+T271+V271+X271+Z271+AA271+AB271+AE271+AF271</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="AN271">
-        <f>+P271+R271+U271+W271+AD271+AG271</f>
+        <f t="shared" si="14"/>
         <v>3.9</v>
       </c>
     </row>
@@ -35403,15 +35455,15 @@
         <v>2</v>
       </c>
       <c r="AL272">
-        <f>+AH272+AJ272+AK272</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AM272">
-        <f>+F272+G272+H272+I272+J272+K272+L272+M272+N272+O272+P272+Q272+S272+T272+V272+X272+Z272+AA272+AB272+AE272+AF272</f>
+        <f t="shared" si="13"/>
         <v>41.7</v>
       </c>
       <c r="AN272">
-        <f>+P272+R272+U272+W272+AD272+AG272</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -35528,15 +35580,15 @@
         <v>0</v>
       </c>
       <c r="AL273">
-        <f>+AH273+AJ273+AK273</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM273">
-        <f>+F273+G273+H273+I273+J273+K273+L273+M273+N273+O273+P273+Q273+S273+T273+V273+X273+Z273+AA273+AB273+AE273+AF273</f>
+        <f t="shared" si="13"/>
         <v>29.3</v>
       </c>
       <c r="AN273">
-        <f>+P273+R273+U273+W273+AD273+AG273</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -35653,15 +35705,15 @@
         <v>0</v>
       </c>
       <c r="AL274">
-        <f>+AH274+AJ274+AK274</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM274">
-        <f>+F274+G274+H274+I274+J274+K274+L274+M274+N274+O274+P274+Q274+S274+T274+V274+X274+Z274+AA274+AB274+AE274+AF274</f>
+        <f t="shared" si="13"/>
         <v>15.2</v>
       </c>
       <c r="AN274">
-        <f>+P274+R274+U274+W274+AD274+AG274</f>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
     </row>
@@ -35778,15 +35830,15 @@
         <v>0</v>
       </c>
       <c r="AL275">
-        <f>+AH275+AJ275+AK275</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM275">
-        <f>+F275+G275+H275+I275+J275+K275+L275+M275+N275+O275+P275+Q275+S275+T275+V275+X275+Z275+AA275+AB275+AE275+AF275</f>
+        <f t="shared" si="13"/>
         <v>24.2</v>
       </c>
       <c r="AN275">
-        <f>+P275+R275+U275+W275+AD275+AG275</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -35903,15 +35955,15 @@
         <v>0</v>
       </c>
       <c r="AL276">
-        <f>+AH276+AJ276+AK276</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM276">
-        <f>+F276+G276+H276+I276+J276+K276+L276+M276+N276+O276+P276+Q276+S276+T276+V276+X276+Z276+AA276+AB276+AE276+AF276</f>
+        <f t="shared" si="13"/>
         <v>26.9</v>
       </c>
       <c r="AN276">
-        <f>+P276+R276+U276+W276+AD276+AG276</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -36028,15 +36080,15 @@
         <v>0</v>
       </c>
       <c r="AL277">
-        <f>+AH277+AJ277+AK277</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM277">
-        <f>+F277+G277+H277+I277+J277+K277+L277+M277+N277+O277+P277+Q277+S277+T277+V277+X277+Z277+AA277+AB277+AE277+AF277</f>
+        <f t="shared" si="13"/>
         <v>41.3</v>
       </c>
       <c r="AN277">
-        <f>+P277+R277+U277+W277+AD277+AG277</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
@@ -36153,15 +36205,15 @@
         <v>0</v>
       </c>
       <c r="AL278">
-        <f>+AH278+AJ278+AK278</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM278">
-        <f>+F278+G278+H278+I278+J278+K278+L278+M278+N278+O278+P278+Q278+S278+T278+V278+X278+Z278+AA278+AB278+AE278+AF278</f>
+        <f t="shared" si="13"/>
         <v>39.599999999999994</v>
       </c>
       <c r="AN278">
-        <f>+P278+R278+U278+W278+AD278+AG278</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
     </row>
@@ -36278,15 +36330,15 @@
         <v>0</v>
       </c>
       <c r="AL279">
-        <f>+AH279+AJ279+AK279</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM279">
-        <f>+F279+G279+H279+I279+J279+K279+L279+M279+N279+O279+P279+Q279+S279+T279+V279+X279+Z279+AA279+AB279+AE279+AF279</f>
+        <f t="shared" si="13"/>
         <v>24.8</v>
       </c>
       <c r="AN279">
-        <f>+P279+R279+U279+W279+AD279+AG279</f>
+        <f t="shared" si="14"/>
         <v>15.8</v>
       </c>
     </row>
@@ -36403,15 +36455,15 @@
         <v>0</v>
       </c>
       <c r="AL280">
-        <f>+AH280+AJ280+AK280</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM280">
-        <f>+F280+G280+H280+I280+J280+K280+L280+M280+N280+O280+P280+Q280+S280+T280+V280+X280+Z280+AA280+AB280+AE280+AF280</f>
+        <f t="shared" si="13"/>
         <v>22.2</v>
       </c>
       <c r="AN280">
-        <f>+P280+R280+U280+W280+AD280+AG280</f>
+        <f t="shared" si="14"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -36528,15 +36580,15 @@
         <v>0</v>
       </c>
       <c r="AL281">
-        <f>+AH281+AJ281+AK281</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM281">
-        <f>+F281+G281+H281+I281+J281+K281+L281+M281+N281+O281+P281+Q281+S281+T281+V281+X281+Z281+AA281+AB281+AE281+AF281</f>
+        <f t="shared" si="13"/>
         <v>25.1</v>
       </c>
       <c r="AN281">
-        <f>+P281+R281+U281+W281+AD281+AG281</f>
+        <f t="shared" si="14"/>
         <v>17.7</v>
       </c>
     </row>
@@ -36550,11 +36602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4D2653-7875-4B6A-8A0B-FF619EE7AC85}">
   <dimension ref="A1:AN281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -80916,6 +80971,1850 @@
       <c r="AN281" s="4">
         <f t="shared" si="14"/>
         <v>0.17699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E65498C-034D-4C20-964F-9B7D9844C4E5}">
+  <dimension ref="A1:AN15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.313</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4.7000000000000014E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.35400000000000004</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0.25400000000000006</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>2.4000000000000007E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0.27800000000000008</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0.97700000000000009</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.3000000000000005E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>3.0000000000000009E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0.10800000000000003</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0.7370000000000001</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.17400000000000004</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.35800000000000004</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0.31100000000000005</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0.57700000000000007</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0.47100000000000003</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>8.9000000000000024E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.2000000000000013E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.79500000000000026</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.10100000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.18100000000000005</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>1.1390000000000002</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.17200000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.46300000000000019</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.24600000000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.94000000000000017</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>1.6490000000000005</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.2429999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1.7000000000000005E-2</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1.7000000000000005E-2</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>1.3539999999999999</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.500000000000001E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1.2000000000000004E-2</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1.2000000000000004E-2</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.11000000000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0.10200000000000002</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0.10200000000000002</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.4000000000000019E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.9300000000000002</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.15400000000000003</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6.0999999999999992E-2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.6000000000000021E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.39700000000000008</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.19800000000000006</v>
+      </c>
+      <c r="U14" s="4">
+        <v>4.330000000000001</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="W14" s="4">
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>4.8620000000000019</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>7.4999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2.7899999999999996</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.44400000000000006</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="T15">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.19</v>
+      </c>
+      <c r="V15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="W15">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="X15">
+        <v>7.7000000000000027E-2</v>
+      </c>
+      <c r="Y15">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>6.490000000000002</v>
+      </c>
+      <c r="AD15">
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>0.32400000000000007</v>
+      </c>
+      <c r="AF15">
+        <v>2E-3</v>
+      </c>
+      <c r="AG15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>4.778999999999999</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>4.4570000000000007</v>
       </c>
     </row>
   </sheetData>
